--- a/results/logistic/dilemma/confidence-reverse/0.1/percents/scores-25.xlsx
+++ b/results/logistic/dilemma/confidence-reverse/0.1/percents/scores-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="109">
   <si>
     <t>0.95-negative</t>
   </si>
@@ -49,160 +49,148 @@
     <t>terrifying</t>
   </si>
   <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>addicted</t>
   </si>
   <si>
-    <t>shit</t>
+    <t>down</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>evil</t>
+  </si>
+  <si>
+    <t>fucked</t>
+  </si>
+  <si>
+    <t>least</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
-    <t>down</t>
-  </si>
-  <si>
-    <t>black</t>
-  </si>
-  <si>
-    <t>other</t>
+    <t>unfortunately</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>shocking</t>
   </si>
   <si>
     <t>shocked</t>
   </si>
   <si>
-    <t>serious</t>
-  </si>
-  <si>
-    <t>fuck</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>creepy</t>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>wrong</t>
+  </si>
+  <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>fake</t>
+  </si>
+  <si>
+    <t>foreign</t>
+  </si>
+  <si>
+    <t>crap</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>afraid</t>
   </si>
   <si>
     <t>mad</t>
   </si>
   <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>shocking</t>
+    <t>sad</t>
+  </si>
+  <si>
+    <t>finally</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>ho</t>
   </si>
   <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>evil</t>
+    <t>blowing</t>
   </si>
   <si>
     <t>holy</t>
   </si>
   <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>single</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>fake</t>
-  </si>
-  <si>
-    <t>sucks</t>
-  </si>
-  <si>
-    <t>revealed</t>
-  </si>
-  <si>
-    <t>version</t>
-  </si>
-  <si>
-    <t>unfortunately</t>
-  </si>
-  <si>
-    <t>brain</t>
-  </si>
-  <si>
-    <t>soon</t>
-  </si>
-  <si>
-    <t>crap</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>guilty</t>
-  </si>
-  <si>
-    <t>chilling</t>
-  </si>
-  <si>
-    <t>afraid</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>p</t>
-  </si>
-  <si>
-    <t>past</t>
-  </si>
-  <si>
-    <t>sad</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>ha</t>
-  </si>
-  <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>wrong</t>
-  </si>
-  <si>
     <t>less</t>
   </si>
   <si>
-    <t>dangerous</t>
+    <t>minutes</t>
+  </si>
+  <si>
+    <t>app</t>
   </si>
   <si>
     <t>false</t>
@@ -211,22 +199,16 @@
     <t>drama</t>
   </si>
   <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>few</t>
-  </si>
-  <si>
-    <t>after</t>
+    <t>half</t>
+  </si>
+  <si>
+    <t>going</t>
   </si>
   <si>
     <t>[UNK]</t>
   </si>
   <si>
-    <t>media</t>
-  </si>
-  <si>
-    <t>.</t>
+    <t>’</t>
   </si>
   <si>
     <t>0.95-positive</t>
@@ -235,106 +217,112 @@
     <t>social</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>more</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>own</t>
+  </si>
+  <si>
     <t>important</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>own</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>most</t>
+  </si>
+  <si>
+    <t>amazing</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>honestly</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>brilliant</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>lo</t>
+    <t>available</t>
+  </si>
+  <si>
+    <t>figure</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>excellent</t>
+  </si>
+  <si>
+    <t>kind</t>
+  </si>
+  <si>
+    <t>yesterday</t>
+  </si>
+  <si>
+    <t>platform</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>always</t>
   </si>
   <si>
     <t>first</t>
   </si>
   <si>
-    <t>available</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>excellent</t>
-  </si>
-  <si>
-    <t>kind</t>
-  </si>
-  <si>
-    <t>brilliant</t>
-  </si>
-  <si>
-    <t>platform</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>most</t>
-  </si>
-  <si>
-    <t>epic</t>
-  </si>
-  <si>
-    <t>loved</t>
-  </si>
-  <si>
-    <t>fascinating</t>
-  </si>
-  <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>aware</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>ironic</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>then</t>
   </si>
   <si>
     <t>0.8-negative</t>
@@ -710,7 +698,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BS64"/>
+  <dimension ref="A1:BS58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -721,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="J1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="S1" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>105</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>106</v>
+      </c>
+      <c r="BC1" t="s">
         <v>107</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="BL1" t="s">
         <v>108</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>109</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BL1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:71">
@@ -941,7 +929,7 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>0.05488213660751084</v>
+        <v>0.1177199806661465</v>
       </c>
       <c r="C3">
         <v>28</v>
@@ -962,16 +950,16 @@
         <v>110</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="K3">
-        <v>0.00938786130374024</v>
+        <v>0.01149820222304296</v>
       </c>
       <c r="L3">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="M3">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -983,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="T3">
-        <v>0.02712329353960391</v>
+        <v>0.05513410929807737</v>
       </c>
       <c r="U3">
         <v>28</v>
@@ -1010,16 +998,16 @@
         <v>110</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AC3">
-        <v>0.008621118171183415</v>
+        <v>0.01115123274170825</v>
       </c>
       <c r="AD3">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AE3">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AF3">
         <v>0</v>
@@ -1031,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="AI3">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="AK3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="AL3">
-        <v>0.02247549039533277</v>
+        <v>0.04027856280021391</v>
       </c>
       <c r="AM3">
         <v>28</v>
@@ -1058,16 +1046,16 @@
         <v>110</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="AU3">
-        <v>0.007500493592831129</v>
+        <v>0.01064412349975752</v>
       </c>
       <c r="AV3">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AW3">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="AX3">
         <v>0</v>
@@ -1079,13 +1067,13 @@
         <v>0</v>
       </c>
       <c r="BA3">
-        <v>1051</v>
+        <v>1041</v>
       </c>
       <c r="BC3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="BD3">
-        <v>0.02055990916047514</v>
+        <v>0.03362488537521572</v>
       </c>
       <c r="BE3">
         <v>28</v>
@@ -1106,16 +1094,16 @@
         <v>110</v>
       </c>
       <c r="BL3" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="BM3">
-        <v>0.005707494267467472</v>
+        <v>0.009832748712636348</v>
       </c>
       <c r="BN3">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="BO3">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="BP3">
         <v>0</v>
@@ -1127,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="BS3">
-        <v>1051</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="4" spans="1:71">
@@ -1135,13 +1123,13 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.03047327840729422</v>
+        <v>0.04976491909446737</v>
       </c>
       <c r="C4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1153,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="K4">
-        <v>0.002492606016865287</v>
+        <v>0.002510811448741407</v>
       </c>
       <c r="L4">
         <v>11</v>
@@ -1177,19 +1165,19 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="T4">
-        <v>0.02035986688081534</v>
+        <v>0.0298809569942441</v>
       </c>
       <c r="U4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="V4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="W4">
         <v>1</v>
@@ -1201,13 +1189,13 @@
         <v>0</v>
       </c>
       <c r="Z4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB4" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AC4">
-        <v>0.002847072824714427</v>
+        <v>0.002933548626126001</v>
       </c>
       <c r="AD4">
         <v>11</v>
@@ -1225,19 +1213,19 @@
         <v>0</v>
       </c>
       <c r="AI4">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="AK4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AL4">
-        <v>0.01866652736457228</v>
+        <v>0.02516124762398637</v>
       </c>
       <c r="AM4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AN4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO4">
         <v>1</v>
@@ -1249,13 +1237,13 @@
         <v>0</v>
       </c>
       <c r="AR4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AT4" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="AU4">
-        <v>0.003365139697724709</v>
+        <v>0.003551395269995793</v>
       </c>
       <c r="AV4">
         <v>11</v>
@@ -1273,19 +1261,19 @@
         <v>0</v>
       </c>
       <c r="BA4">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="BC4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BD4">
-        <v>0.01796862142904308</v>
+        <v>0.02304732851007476</v>
       </c>
       <c r="BE4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BF4">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BG4">
         <v>1</v>
@@ -1297,13 +1285,13 @@
         <v>0</v>
       </c>
       <c r="BJ4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="BL4" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="BM4">
-        <v>0.004194046694541161</v>
+        <v>0.004539949900187459</v>
       </c>
       <c r="BN4">
         <v>11</v>
@@ -1321,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="BS4">
-        <v>46</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:71">
@@ -1329,13 +1317,13 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>0.02441058668139923</v>
+        <v>0.04595844639313468</v>
       </c>
       <c r="C5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1347,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="K5">
-        <v>0.002299778811407574</v>
+        <v>0.002281574554264918</v>
       </c>
       <c r="L5">
         <v>10</v>
@@ -1371,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="T5">
-        <v>0.01871435753288644</v>
+        <v>0.02868841465409546</v>
       </c>
       <c r="U5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="V5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="W5">
         <v>1</v>
@@ -1395,13 +1383,13 @@
         <v>0</v>
       </c>
       <c r="Z5">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AB5" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AC5">
-        <v>0.002680544078406597</v>
+        <v>0.002594073856978982</v>
       </c>
       <c r="AD5">
         <v>10</v>
@@ -1419,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="AK5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="AL5">
-        <v>0.01776060914783377</v>
+        <v>0.02458915464683178</v>
       </c>
       <c r="AM5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AN5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AO5">
         <v>1</v>
@@ -1443,13 +1431,13 @@
         <v>0</v>
       </c>
       <c r="AR5">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AT5" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="AU5">
-        <v>0.003237047160943633</v>
+        <v>0.003050803607099539</v>
       </c>
       <c r="AV5">
         <v>10</v>
@@ -1467,19 +1455,19 @@
         <v>0</v>
       </c>
       <c r="BA5">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="BC5" s="1" t="s">
         <v>11</v>
       </c>
       <c r="BD5">
-        <v>0.01736752397351123</v>
+        <v>0.02275312971342048</v>
       </c>
       <c r="BE5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BF5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BG5">
         <v>1</v>
@@ -1491,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="BJ5">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="BL5" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="BM5">
-        <v>0.004127452093002889</v>
+        <v>0.003781571207292429</v>
       </c>
       <c r="BN5">
         <v>10</v>
@@ -1515,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="BS5">
-        <v>20</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:71">
@@ -1523,13 +1511,13 @@
         <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02437600421025995</v>
+        <v>0.0338926088371399</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1541,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="K6">
-        <v>0.002255951751636903</v>
+        <v>0.002255953237329227</v>
       </c>
       <c r="L6">
         <v>10</v>
@@ -1571,13 +1559,13 @@
         <v>12</v>
       </c>
       <c r="T6">
-        <v>0.01867467863071423</v>
+        <v>0.02411876920311042</v>
       </c>
       <c r="U6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="W6">
         <v>1</v>
@@ -1589,13 +1577,13 @@
         <v>0</v>
       </c>
       <c r="Z6">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AB6" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="AC6">
-        <v>0.002472365544495916</v>
+        <v>0.002472372601534452</v>
       </c>
       <c r="AD6">
         <v>10</v>
@@ -1619,13 +1607,13 @@
         <v>12</v>
       </c>
       <c r="AL6">
-        <v>0.01772007692450111</v>
+        <v>0.02179882500528843</v>
       </c>
       <c r="AM6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AO6">
         <v>1</v>
@@ -1637,19 +1625,19 @@
         <v>0</v>
       </c>
       <c r="AR6">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="AT6" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AU6">
-        <v>0.002788662626366779</v>
+        <v>0.002881318193833746</v>
       </c>
       <c r="AV6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AW6">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX6">
         <v>0</v>
@@ -1661,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="BA6">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="BC6" s="1" t="s">
         <v>12</v>
       </c>
       <c r="BD6">
-        <v>0.01732664005585084</v>
+        <v>0.02075974102823488</v>
       </c>
       <c r="BE6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BF6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BG6">
         <v>1</v>
@@ -1685,13 +1673,13 @@
         <v>0</v>
       </c>
       <c r="BJ6">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="BL6" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="BM6">
-        <v>0.003330631249439455</v>
+        <v>0.00363810412085397</v>
       </c>
       <c r="BN6">
         <v>9</v>
@@ -1709,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="BS6">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:71">
@@ -1717,13 +1705,13 @@
         <v>13</v>
       </c>
       <c r="B7">
-        <v>0.02137430046543185</v>
+        <v>0.03382796689194024</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1735,13 +1723,13 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="K7">
-        <v>0.002068518645843273</v>
+        <v>0.0020847014285493</v>
       </c>
       <c r="L7">
         <v>9</v>
@@ -1759,19 +1747,19 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="S7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="T7">
-        <v>0.01788593444432597</v>
+        <v>0.02401956736005651</v>
       </c>
       <c r="U7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W7">
         <v>1</v>
@@ -1783,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="Z7">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AB7" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="AC7">
-        <v>0.002331458771592478</v>
+        <v>0.002408326989446106</v>
       </c>
       <c r="AD7">
         <v>9</v>
@@ -1807,19 +1795,19 @@
         <v>0</v>
       </c>
       <c r="AI7">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="AK7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="AL7">
-        <v>0.01730185972184557</v>
+        <v>0.02169141993428047</v>
       </c>
       <c r="AM7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO7">
         <v>1</v>
@@ -1831,19 +1819,19 @@
         <v>0</v>
       </c>
       <c r="AR7">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AT7" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="AU7">
-        <v>0.0027157558784567</v>
+        <v>0.002788677826142089</v>
       </c>
       <c r="AV7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX7">
         <v>0</v>
@@ -1855,19 +1843,19 @@
         <v>0</v>
       </c>
       <c r="BA7">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="BC7" s="1" t="s">
         <v>13</v>
       </c>
       <c r="BD7">
-        <v>0.01706113468607954</v>
+        <v>0.02064866179871261</v>
       </c>
       <c r="BE7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BF7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BG7">
         <v>1</v>
@@ -1879,13 +1867,13 @@
         <v>0</v>
       </c>
       <c r="BJ7">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="BL7" s="1" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="BM7">
-        <v>0.003294737957360161</v>
+        <v>0.003294766185514309</v>
       </c>
       <c r="BN7">
         <v>10</v>
@@ -1911,13 +1899,13 @@
         <v>14</v>
       </c>
       <c r="B8">
-        <v>0.02129031446409359</v>
+        <v>0.03355647072210162</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1929,13 +1917,13 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="K8">
-        <v>0.001662636361187538</v>
+        <v>0.001653197446897048</v>
       </c>
       <c r="L8">
         <v>7</v>
@@ -1953,19 +1941,19 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="T8">
-        <v>0.01778957139619345</v>
+        <v>0.02360291961923009</v>
       </c>
       <c r="U8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W8">
         <v>1</v>
@@ -1977,13 +1965,13 @@
         <v>0</v>
       </c>
       <c r="Z8">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AB8" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AC8">
-        <v>0.00190231887871035</v>
+        <v>0.001857484035830521</v>
       </c>
       <c r="AD8">
         <v>7</v>
@@ -2001,19 +1989,19 @@
         <v>0</v>
       </c>
       <c r="AI8">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="AK8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="AL8">
-        <v>0.01720342432232339</v>
+        <v>0.02124031863604705</v>
       </c>
       <c r="AM8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO8">
         <v>1</v>
@@ -2025,13 +2013,13 @@
         <v>0</v>
       </c>
       <c r="AR8">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="AT8" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="AU8">
-        <v>0.002252624096628306</v>
+        <v>0.002156056742733289</v>
       </c>
       <c r="AV8">
         <v>7</v>
@@ -2049,13 +2037,13 @@
         <v>0</v>
       </c>
       <c r="BA8">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="BC8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BD8">
-        <v>0.01696184517176143</v>
+        <v>0.02046554223158061</v>
       </c>
       <c r="BE8">
         <v>6</v>
@@ -2073,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="BJ8">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="BL8" s="1" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="BM8">
-        <v>0.002813112445297035</v>
+        <v>0.002633773073777719</v>
       </c>
       <c r="BN8">
         <v>7</v>
@@ -2097,7 +2085,7 @@
         <v>0</v>
       </c>
       <c r="BS8">
-        <v>29</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:71">
@@ -2105,13 +2093,13 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>0.01982651523932877</v>
+        <v>0.03008613613580722</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -2123,13 +2111,13 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="K9">
-        <v>0.001653196686775394</v>
+        <v>0.001645780749889348</v>
       </c>
       <c r="L9">
         <v>7</v>
@@ -2147,19 +2135,19 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="T9">
-        <v>0.01743771241246954</v>
+        <v>0.02292622686296177</v>
       </c>
       <c r="U9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W9">
         <v>1</v>
@@ -2171,13 +2159,13 @@
         <v>0</v>
       </c>
       <c r="Z9">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AB9" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AC9">
-        <v>0.001857480425252665</v>
+        <v>0.001822254725043946</v>
       </c>
       <c r="AD9">
         <v>7</v>
@@ -2195,19 +2183,19 @@
         <v>0</v>
       </c>
       <c r="AI9">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="AK9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="AL9">
-        <v>0.01703774310313776</v>
+        <v>0.02122673202813384</v>
       </c>
       <c r="AM9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AN9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO9">
         <v>1</v>
@@ -2219,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="AR9">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AT9" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AU9">
-        <v>0.002156048966104061</v>
+        <v>0.002080178227192975</v>
       </c>
       <c r="AV9">
         <v>7</v>
@@ -2243,19 +2231,19 @@
         <v>0</v>
       </c>
       <c r="BA9">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="BC9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD9">
-        <v>0.01687289668436906</v>
+        <v>0.02031003131024942</v>
       </c>
       <c r="BE9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BG9">
         <v>1</v>
@@ -2267,13 +2255,13 @@
         <v>0</v>
       </c>
       <c r="BJ9">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BL9" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="BM9">
-        <v>0.002633758631466294</v>
+        <v>0.002492855830631421</v>
       </c>
       <c r="BN9">
         <v>7</v>
@@ -2291,7 +2279,7 @@
         <v>0</v>
       </c>
       <c r="BS9">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:71">
@@ -2299,13 +2287,13 @@
         <v>16</v>
       </c>
       <c r="B10">
-        <v>0.01963878182457268</v>
+        <v>0.02999563741252768</v>
       </c>
       <c r="C10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -2317,13 +2305,13 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K10">
-        <v>0.001450929806905537</v>
+        <v>0.001450930359721285</v>
       </c>
       <c r="L10">
         <v>6</v>
@@ -2347,13 +2335,13 @@
         <v>16</v>
       </c>
       <c r="T10">
-        <v>0.01722231265782039</v>
+        <v>0.0227873442826863</v>
       </c>
       <c r="U10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="V10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W10">
         <v>1</v>
@@ -2365,13 +2353,13 @@
         <v>0</v>
       </c>
       <c r="Z10">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="AB10" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AC10">
-        <v>0.00164611322548715</v>
+        <v>0.001646115851361954</v>
       </c>
       <c r="AD10">
         <v>6</v>
@@ -2392,16 +2380,16 @@
         <v>31</v>
       </c>
       <c r="AK10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AL10">
-        <v>0.01685469093109526</v>
+        <v>0.0210763649287227</v>
       </c>
       <c r="AM10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AN10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AO10">
         <v>1</v>
@@ -2413,13 +2401,13 @@
         <v>0</v>
       </c>
       <c r="AR10">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="AT10" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="AU10">
-        <v>0.001931381298798739</v>
+        <v>0.001931386954529086</v>
       </c>
       <c r="AV10">
         <v>6</v>
@@ -2440,16 +2428,16 @@
         <v>31</v>
       </c>
       <c r="BC10" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BD10">
-        <v>0.01676642651797938</v>
+        <v>0.02018212903471905</v>
       </c>
       <c r="BE10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BF10">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BG10">
         <v>1</v>
@@ -2461,13 +2449,13 @@
         <v>0</v>
       </c>
       <c r="BJ10">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="BL10" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="BM10">
-        <v>0.00238781021609728</v>
+        <v>0.002387820719596498</v>
       </c>
       <c r="BN10">
         <v>6</v>
@@ -2493,13 +2481,13 @@
         <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01834789495550426</v>
+        <v>0.02585302659615671</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -2511,13 +2499,13 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="K11">
-        <v>0.001434747507913289</v>
+        <v>0.001435422720523367</v>
       </c>
       <c r="L11">
         <v>6</v>
@@ -2535,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="T11">
-        <v>0.01706884818495755</v>
+        <v>0.02107895235865732</v>
       </c>
       <c r="U11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="W11">
         <v>1</v>
@@ -2559,13 +2547,13 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="AB11" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AC11">
-        <v>0.001569247305273975</v>
+        <v>0.001572454565171844</v>
       </c>
       <c r="AD11">
         <v>6</v>
@@ -2583,13 +2571,13 @@
         <v>0</v>
       </c>
       <c r="AI11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="AK11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL11">
-        <v>0.01681771103361759</v>
+        <v>0.01994576558232673</v>
       </c>
       <c r="AM11">
         <v>5</v>
@@ -2607,13 +2595,13 @@
         <v>0</v>
       </c>
       <c r="AR11">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="AT11" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="AU11">
-        <v>0.001765823932185747</v>
+        <v>0.001772731876581157</v>
       </c>
       <c r="AV11">
         <v>6</v>
@@ -2631,19 +2619,19 @@
         <v>0</v>
       </c>
       <c r="BA11">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="BC11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="BD11">
-        <v>0.01672554260031899</v>
+        <v>0.01943822052007931</v>
       </c>
       <c r="BE11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BF11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BG11">
         <v>1</v>
@@ -2655,19 +2643,19 @@
         <v>0</v>
       </c>
       <c r="BJ11">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="BL11" s="1" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="BM11">
-        <v>0.002103428840621679</v>
+        <v>0.002093175574836057</v>
       </c>
       <c r="BN11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BO11">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BP11">
         <v>0</v>
@@ -2679,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="BS11">
-        <v>22</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:71">
@@ -2687,7 +2675,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01831331248436498</v>
+        <v>0.02204655389482402</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -2705,19 +2693,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="K12">
-        <v>0.001432050458081248</v>
+        <v>0.001221693465244795</v>
       </c>
       <c r="L12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2735,7 +2723,7 @@
         <v>18</v>
       </c>
       <c r="T12">
-        <v>0.01702916928278533</v>
+        <v>0.01988641001850867</v>
       </c>
       <c r="U12">
         <v>4</v>
@@ -2753,19 +2741,19 @@
         <v>0</v>
       </c>
       <c r="Z12">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AB12" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="AC12">
-        <v>0.001556436318571779</v>
+        <v>0.001306641082214935</v>
       </c>
       <c r="AD12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AE12">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF12">
         <v>0</v>
@@ -2783,7 +2771,7 @@
         <v>18</v>
       </c>
       <c r="AL12">
-        <v>0.0168141587077626</v>
+        <v>0.01937367260517214</v>
       </c>
       <c r="AM12">
         <v>4</v>
@@ -2801,19 +2789,19 @@
         <v>0</v>
       </c>
       <c r="AR12">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AT12" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="AU12">
-        <v>0.001738231037750248</v>
+        <v>0.001433761050049572</v>
       </c>
       <c r="AV12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX12">
         <v>0</v>
@@ -2825,13 +2813,13 @@
         <v>0</v>
       </c>
       <c r="BA12">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="BC12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD12">
-        <v>0.01671386148098745</v>
+        <v>0.01914402172342504</v>
       </c>
       <c r="BE12">
         <v>4</v>
@@ -2849,19 +2837,19 @@
         <v>0</v>
       </c>
       <c r="BJ12">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="BL12" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="BM12">
-        <v>0.002080346535244581</v>
+        <v>0.00180624140195914</v>
       </c>
       <c r="BN12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BO12">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BP12">
         <v>0</v>
@@ -2873,7 +2861,7 @@
         <v>0</v>
       </c>
       <c r="BS12">
-        <v>55</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:71">
@@ -2881,7 +2869,7 @@
         <v>19</v>
       </c>
       <c r="B13">
-        <v>0.01830343177832518</v>
+        <v>0.02195605517154448</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -2902,16 +2890,16 @@
         <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K13">
-        <v>0.001425307833501145</v>
+        <v>0.001041676469092132</v>
       </c>
       <c r="L13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="M13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2923,13 +2911,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="T13">
-        <v>0.01701783245359327</v>
+        <v>0.0197475274382332</v>
       </c>
       <c r="U13">
         <v>4</v>
@@ -2950,16 +2938,16 @@
         <v>19</v>
       </c>
       <c r="AB13" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="AC13">
-        <v>0.00152440885181629</v>
+        <v>0.001200960830106092</v>
       </c>
       <c r="AD13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE13">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AF13">
         <v>0</v>
@@ -2971,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="AK13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AL13">
-        <v>0.0168025780725247</v>
+        <v>0.019223305505761</v>
       </c>
       <c r="AM13">
         <v>4</v>
@@ -2998,10 +2986,10 @@
         <v>19</v>
       </c>
       <c r="AT13" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="AU13">
-        <v>0.001686018960666792</v>
+        <v>0.001430795291632832</v>
       </c>
       <c r="AV13">
         <v>5</v>
@@ -3019,13 +3007,13 @@
         <v>0</v>
       </c>
       <c r="BA13">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="BC13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD13">
-        <v>0.01668465868265859</v>
+        <v>0.01898851080209385</v>
       </c>
       <c r="BE13">
         <v>4</v>
@@ -3043,19 +3031,19 @@
         <v>0</v>
       </c>
       <c r="BJ13">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="BL13" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="BM13">
-        <v>0.002029102588435798</v>
+        <v>0.001629442026701467</v>
       </c>
       <c r="BN13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BO13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BP13">
         <v>0</v>
@@ -3075,7 +3063,7 @@
         <v>20</v>
       </c>
       <c r="B14">
-        <v>0.01827873001322569</v>
+        <v>0.02189141322634481</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -3096,16 +3084,16 @@
         <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="K14">
-        <v>0.001246640139661648</v>
+        <v>0.001009986945513778</v>
       </c>
       <c r="L14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -3117,13 +3105,13 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="T14">
-        <v>0.01698949038061312</v>
+        <v>0.01964832559517929</v>
       </c>
       <c r="U14">
         <v>4</v>
@@ -3144,16 +3132,16 @@
         <v>24</v>
       </c>
       <c r="AB14" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="AC14">
-        <v>0.001425137785694988</v>
+        <v>0.00105043559310891</v>
       </c>
       <c r="AD14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AE14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF14">
         <v>0</v>
@@ -3165,13 +3153,13 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="AK14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="AL14">
-        <v>0.01677362648442994</v>
+        <v>0.01911590043475303</v>
       </c>
       <c r="AM14">
         <v>4</v>
@@ -3192,16 +3180,16 @@
         <v>24</v>
       </c>
       <c r="AT14" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="AU14">
-        <v>0.001669248801661501</v>
+        <v>0.001202193214978068</v>
       </c>
       <c r="AV14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX14">
         <v>0</v>
@@ -3213,19 +3201,19 @@
         <v>0</v>
       </c>
       <c r="BA14">
-        <v>69</v>
+        <v>3</v>
       </c>
       <c r="BC14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BD14">
-        <v>0.01665095541706978</v>
+        <v>0.01887743157257157</v>
       </c>
       <c r="BE14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BF14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BG14">
         <v>1</v>
@@ -3237,19 +3225,19 @@
         <v>0</v>
       </c>
       <c r="BJ14">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="BL14" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="BM14">
-        <v>0.00190099272141384</v>
+        <v>0.001547478389310074</v>
       </c>
       <c r="BN14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BO14">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BP14">
         <v>0</v>
@@ -3261,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="BS14">
-        <v>69</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:71">
@@ -3269,13 +3257,13 @@
         <v>21</v>
       </c>
       <c r="B15">
-        <v>0.01824414754208642</v>
+        <v>0.01805908374693226</v>
       </c>
       <c r="C15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -3287,19 +3275,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="K15">
-        <v>0.00104167620995975</v>
+        <v>0.000838735136733851</v>
       </c>
       <c r="L15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -3311,19 +3299,19 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="T15">
-        <v>0.01694981147844091</v>
+        <v>0.01841610251780908</v>
       </c>
       <c r="U15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="W15">
         <v>1</v>
@@ -3335,19 +3323,19 @@
         <v>0</v>
       </c>
       <c r="Z15">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="AB15" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="AC15">
-        <v>0.001200959599227277</v>
+        <v>0.0009863899810205639</v>
       </c>
       <c r="AD15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF15">
         <v>0</v>
@@ -3359,103 +3347,103 @@
         <v>0</v>
       </c>
       <c r="AI15">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AK15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="AL15">
-        <v>0.01673309426109728</v>
+        <v>0.01850084542919526</v>
       </c>
       <c r="AM15">
+        <v>3</v>
+      </c>
+      <c r="AN15">
+        <v>3</v>
+      </c>
+      <c r="AO15">
+        <v>1</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>8</v>
+      </c>
+      <c r="AT15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AU15">
+        <v>0.001195295168110766</v>
+      </c>
+      <c r="AV15">
+        <v>3</v>
+      </c>
+      <c r="AW15">
+        <v>3</v>
+      </c>
+      <c r="AX15">
+        <v>0</v>
+      </c>
+      <c r="AY15">
+        <v>1</v>
+      </c>
+      <c r="AZ15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA15">
         <v>4</v>
-      </c>
-      <c r="AN15">
-        <v>4</v>
-      </c>
-      <c r="AO15">
-        <v>1</v>
-      </c>
-      <c r="AP15">
-        <v>0</v>
-      </c>
-      <c r="AQ15" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR15">
-        <v>31</v>
-      </c>
-      <c r="AT15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AU15">
-        <v>0.001433758398925971</v>
-      </c>
-      <c r="AV15">
-        <v>4</v>
-      </c>
-      <c r="AW15">
-        <v>4</v>
-      </c>
-      <c r="AX15">
-        <v>0</v>
-      </c>
-      <c r="AY15">
-        <v>1</v>
-      </c>
-      <c r="AZ15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BA15">
-        <v>14</v>
       </c>
       <c r="BC15" s="1" t="s">
         <v>21</v>
       </c>
       <c r="BD15">
-        <v>0.0166437747649982</v>
+        <v>0.01853880108410838</v>
       </c>
       <c r="BE15">
+        <v>3</v>
+      </c>
+      <c r="BF15">
+        <v>3</v>
+      </c>
+      <c r="BG15">
+        <v>1</v>
+      </c>
+      <c r="BH15">
+        <v>0</v>
+      </c>
+      <c r="BI15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BJ15">
+        <v>8</v>
+      </c>
+      <c r="BL15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="BM15">
+        <v>0.001534667730842229</v>
+      </c>
+      <c r="BN15">
+        <v>3</v>
+      </c>
+      <c r="BO15">
+        <v>3</v>
+      </c>
+      <c r="BP15">
+        <v>0</v>
+      </c>
+      <c r="BQ15">
+        <v>1</v>
+      </c>
+      <c r="BR15" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS15">
         <v>4</v>
-      </c>
-      <c r="BF15">
-        <v>4</v>
-      </c>
-      <c r="BG15">
-        <v>1</v>
-      </c>
-      <c r="BH15">
-        <v>0</v>
-      </c>
-      <c r="BI15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ15">
-        <v>31</v>
-      </c>
-      <c r="BL15" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BM15">
-        <v>0.001806236478443881</v>
-      </c>
-      <c r="BN15">
-        <v>4</v>
-      </c>
-      <c r="BO15">
-        <v>4</v>
-      </c>
-      <c r="BP15">
-        <v>0</v>
-      </c>
-      <c r="BQ15">
-        <v>1</v>
-      </c>
-      <c r="BR15" t="b">
-        <v>0</v>
-      </c>
-      <c r="BS15">
-        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:71">
@@ -3463,7 +3451,7 @@
         <v>22</v>
       </c>
       <c r="B16">
-        <v>0.01681493078846087</v>
+        <v>0.01804615535789232</v>
       </c>
       <c r="C16">
         <v>3</v>
@@ -3481,37 +3469,37 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="K16">
-        <v>0.001017402761471379</v>
+        <v>0.0008380608915513328</v>
       </c>
       <c r="L16">
+        <v>3</v>
+      </c>
+      <c r="M16">
+        <v>3</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>1</v>
+      </c>
+      <c r="P16" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q16">
         <v>4</v>
-      </c>
-      <c r="M16">
-        <v>4</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>1</v>
-      </c>
-      <c r="P16" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>50</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="T16">
-        <v>0.01663763139688922</v>
+        <v>0.0183962621491983</v>
       </c>
       <c r="U16">
         <v>3</v>
@@ -3529,37 +3517,37 @@
         <v>0</v>
       </c>
       <c r="Z16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AB16" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="AC16">
-        <v>0.001085660718907515</v>
+        <v>0.0009831873164036025</v>
       </c>
       <c r="AD16">
+        <v>3</v>
+      </c>
+      <c r="AE16">
+        <v>3</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>1</v>
+      </c>
+      <c r="AH16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI16">
         <v>4</v>
-      </c>
-      <c r="AE16">
-        <v>4</v>
-      </c>
-      <c r="AF16">
-        <v>0</v>
-      </c>
-      <c r="AG16">
-        <v>1</v>
-      </c>
-      <c r="AH16" t="b">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>50</v>
       </c>
       <c r="AK16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="AL16">
-        <v>0.0166079452652443</v>
+        <v>0.01847936441499367</v>
       </c>
       <c r="AM16">
         <v>3</v>
@@ -3577,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="AR16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AT16" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="AU16">
-        <v>0.001202192508011774</v>
+        <v>0.001140110793172356</v>
       </c>
       <c r="AV16">
         <v>3</v>
@@ -3601,13 +3589,13 @@
         <v>0</v>
       </c>
       <c r="BA16">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BC16" s="1" t="s">
         <v>22</v>
       </c>
       <c r="BD16">
-        <v>0.01659571019526622</v>
+        <v>0.01851658523820393</v>
       </c>
       <c r="BE16">
         <v>3</v>
@@ -3625,13 +3613,13 @@
         <v>0</v>
       </c>
       <c r="BJ16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BL16" s="1" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="BM16">
-        <v>0.001547477076372672</v>
+        <v>0.001432182463099466</v>
       </c>
       <c r="BN16">
         <v>3</v>
@@ -3649,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="BS16">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:71">
@@ -3657,7 +3645,7 @@
         <v>23</v>
       </c>
       <c r="B17">
-        <v>0.01680999043544097</v>
+        <v>0.01803322696885239</v>
       </c>
       <c r="C17">
         <v>3</v>
@@ -3675,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K17">
-        <v>0.001005940299685204</v>
+        <v>0.0008326669300911874</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -3699,13 +3687,13 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="T17">
-        <v>0.01663196298229318</v>
+        <v>0.01837642178058752</v>
       </c>
       <c r="U17">
         <v>3</v>
@@ -3723,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="Z17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB17" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="AC17">
-        <v>0.001031214025423183</v>
+        <v>0.0009575659994679121</v>
       </c>
       <c r="AD17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AE17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF17">
         <v>0</v>
@@ -3747,13 +3735,13 @@
         <v>0</v>
       </c>
       <c r="AI17">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="AK17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="AL17">
-        <v>0.01660215494762535</v>
+        <v>0.01845788340079208</v>
       </c>
       <c r="AM17">
         <v>3</v>
@@ -3771,13 +3759,13 @@
         <v>0</v>
       </c>
       <c r="AR17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AT17" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="AU17">
-        <v>0.001185422349006483</v>
+        <v>0.001109552847286411</v>
       </c>
       <c r="AV17">
         <v>4</v>
@@ -3795,13 +3783,13 @@
         <v>0</v>
       </c>
       <c r="BA17">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="BC17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="BD17">
-        <v>0.01658986963560045</v>
+        <v>0.01849436939229947</v>
       </c>
       <c r="BE17">
         <v>3</v>
@@ -3819,13 +3807,13 @@
         <v>0</v>
       </c>
       <c r="BJ17">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BL17" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="BM17">
-        <v>0.001345040957164833</v>
+        <v>0.001204140453970413</v>
       </c>
       <c r="BN17">
         <v>4</v>
@@ -3843,7 +3831,7 @@
         <v>0</v>
       </c>
       <c r="BS17">
-        <v>50</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:71">
@@ -3851,7 +3839,7 @@
         <v>24</v>
       </c>
       <c r="B18">
-        <v>0.01680999043544097</v>
+        <v>0.01798151341269265</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -3869,13 +3857,13 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K18">
-        <v>0.0008387350676318825</v>
+        <v>0.0008151365553457149</v>
       </c>
       <c r="L18">
         <v>3</v>
@@ -3893,13 +3881,13 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="T18">
-        <v>0.01663196298229318</v>
+        <v>0.01829706030614439</v>
       </c>
       <c r="U18">
         <v>3</v>
@@ -3917,13 +3905,13 @@
         <v>0</v>
       </c>
       <c r="Z18">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AB18" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="AC18">
-        <v>0.0009863896527862134</v>
+        <v>0.0008742967194269181</v>
       </c>
       <c r="AD18">
         <v>3</v>
@@ -3941,13 +3929,13 @@
         <v>0</v>
       </c>
       <c r="AI18">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="AK18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="AL18">
-        <v>0.01660215494762535</v>
+        <v>0.01837195934398571</v>
       </c>
       <c r="AM18">
         <v>3</v>
@@ -3965,19 +3953,19 @@
         <v>0</v>
       </c>
       <c r="AR18">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AT18" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="AU18">
-        <v>0.001068152547655614</v>
+        <v>0.0009607615746225228</v>
       </c>
       <c r="AV18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW18">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX18">
         <v>0</v>
@@ -3989,13 +3977,13 @@
         <v>0</v>
       </c>
       <c r="BA18">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="BC18" s="1" t="s">
         <v>24</v>
       </c>
       <c r="BD18">
-        <v>0.01658986963560045</v>
+        <v>0.01840550600868165</v>
       </c>
       <c r="BE18">
         <v>3</v>
@@ -4013,13 +4001,13 @@
         <v>0</v>
       </c>
       <c r="BJ18">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BL18" s="1" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="BM18">
-        <v>0.001252824382222168</v>
+        <v>0.00109910534293549</v>
       </c>
       <c r="BN18">
         <v>3</v>
@@ -4037,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="BS18">
-        <v>26</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:71">
@@ -4045,7 +4033,7 @@
         <v>25</v>
       </c>
       <c r="B19">
-        <v>0.01680010972940118</v>
+        <v>0.01795565663461278</v>
       </c>
       <c r="C19">
         <v>3</v>
@@ -4063,13 +4051,13 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="K19">
-        <v>0.0008232270310976453</v>
+        <v>0.0007949091998701698</v>
       </c>
       <c r="L19">
         <v>3</v>
@@ -4087,13 +4075,13 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="T19">
-        <v>0.01662062615310112</v>
+        <v>0.01825737956892283</v>
       </c>
       <c r="U19">
         <v>3</v>
@@ -4111,13 +4099,13 @@
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AB19" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="AC19">
-        <v>0.0009127264792485875</v>
+        <v>0.0007782167809180788</v>
       </c>
       <c r="AD19">
         <v>3</v>
@@ -4135,13 +4123,13 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="AK19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="AL19">
-        <v>0.01659057431238745</v>
+        <v>0.01832899731558253</v>
       </c>
       <c r="AM19">
         <v>3</v>
@@ -4159,19 +4147,19 @@
         <v>0</v>
       </c>
       <c r="AR19">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AT19" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="AU19">
-        <v>0.001043533365007657</v>
+        <v>0.0008533585831624419</v>
       </c>
       <c r="AV19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX19">
         <v>0</v>
@@ -4183,13 +4171,13 @@
         <v>0</v>
       </c>
       <c r="BA19">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="BC19" s="1" t="s">
         <v>25</v>
       </c>
       <c r="BD19">
-        <v>0.01657818851626891</v>
+        <v>0.01836107431687274</v>
       </c>
       <c r="BE19">
         <v>3</v>
@@ -4207,19 +4195,19 @@
         <v>0</v>
       </c>
       <c r="BJ19">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BL19" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="BM19">
-        <v>0.001201580435413385</v>
+        <v>0.001070934182707638</v>
       </c>
       <c r="BN19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BO19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BP19">
         <v>0</v>
@@ -4231,7 +4219,7 @@
         <v>0</v>
       </c>
       <c r="BS19">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:71">
@@ -4239,7 +4227,7 @@
         <v>26</v>
       </c>
       <c r="B20">
-        <v>0.01679516937638128</v>
+        <v>0.01783930113325338</v>
       </c>
       <c r="C20">
         <v>3</v>
@@ -4257,19 +4245,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="K20">
-        <v>0.0008205299812656042</v>
+        <v>0.000624331636272761</v>
       </c>
       <c r="L20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -4281,13 +4269,13 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="T20">
-        <v>0.01661495773850509</v>
+        <v>0.01807881625142579</v>
       </c>
       <c r="U20">
         <v>3</v>
@@ -4305,19 +4293,19 @@
         <v>0</v>
       </c>
       <c r="Z20">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AB20" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="AC20">
-        <v>0.0008999154925463917</v>
+        <v>0.0007173738334466938</v>
       </c>
       <c r="AD20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AE20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF20">
         <v>0</v>
@@ -4329,13 +4317,13 @@
         <v>0</v>
       </c>
       <c r="AI20">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="AK20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="AL20">
-        <v>0.0165847839947685</v>
+        <v>0.0181356681877682</v>
       </c>
       <c r="AM20">
         <v>3</v>
@@ -4353,19 +4341,19 @@
         <v>0</v>
       </c>
       <c r="AR20">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AT20" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AU20">
-        <v>0.001015940470572158</v>
+        <v>0.0008050722550913328</v>
       </c>
       <c r="AV20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX20">
         <v>0</v>
@@ -4377,13 +4365,13 @@
         <v>0</v>
       </c>
       <c r="BA20">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="BC20" s="1" t="s">
         <v>26</v>
       </c>
       <c r="BD20">
-        <v>0.01657234795660314</v>
+        <v>0.01816113170373265</v>
       </c>
       <c r="BE20">
         <v>3</v>
@@ -4401,13 +4389,13 @@
         <v>0</v>
       </c>
       <c r="BJ20">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="BL20" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="BM20">
-        <v>0.001147796820577308</v>
+        <v>0.0009812595734327218</v>
       </c>
       <c r="BN20">
         <v>2</v>
@@ -4425,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="BS20">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="21" spans="1:71">
@@ -4433,13 +4421,13 @@
         <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01679022902336139</v>
+        <v>0.01409747037712036</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -4451,13 +4439,13 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="K21">
-        <v>0.0006283770382659015</v>
+        <v>0.0006196119199951337</v>
       </c>
       <c r="L21">
         <v>2</v>
@@ -4475,19 +4463,19 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="T21">
-        <v>0.01660928932390907</v>
+        <v>0.01698547575433105</v>
       </c>
       <c r="U21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W21">
         <v>1</v>
@@ -4499,13 +4487,13 @@
         <v>0</v>
       </c>
       <c r="Z21">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AB21" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="AC21">
-        <v>0.0007365894929141111</v>
+        <v>0.0006949551811279647</v>
       </c>
       <c r="AD21">
         <v>2</v>
@@ -4523,44 +4511,44 @@
         <v>0</v>
       </c>
       <c r="AI21">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="AK21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="AL21">
-        <v>0.01657899367714955</v>
+        <v>0.01767098028162157</v>
       </c>
       <c r="AM21">
+        <v>2</v>
+      </c>
+      <c r="AN21">
+        <v>2</v>
+      </c>
+      <c r="AO21">
+        <v>1</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AR21">
+        <v>2</v>
+      </c>
+      <c r="AT21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AU21">
+        <v>0.0007538201686034842</v>
+      </c>
+      <c r="AV21">
         <v>3</v>
       </c>
-      <c r="AN21">
+      <c r="AW21">
         <v>3</v>
       </c>
-      <c r="AO21">
-        <v>1</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR21">
-        <v>13</v>
-      </c>
-      <c r="AT21" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AU21">
-        <v>0.0008947461573999559</v>
-      </c>
-      <c r="AV21">
-        <v>2</v>
-      </c>
-      <c r="AW21">
-        <v>2</v>
-      </c>
       <c r="AX21">
         <v>0</v>
       </c>
@@ -4571,19 +4559,19 @@
         <v>0</v>
       </c>
       <c r="BA21">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="BC21" s="1" t="s">
         <v>27</v>
       </c>
       <c r="BD21">
-        <v>0.01656650739693737</v>
+        <v>0.01797801213660065</v>
       </c>
       <c r="BE21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG21">
         <v>1</v>
@@ -4595,19 +4583,19 @@
         <v>0</v>
       </c>
       <c r="BJ21">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="BL21" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="BM21">
-        <v>0.001127254183227504</v>
+        <v>0.0008659636472221146</v>
       </c>
       <c r="BN21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BO21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BP21">
         <v>0</v>
@@ -4619,7 +4607,7 @@
         <v>0</v>
       </c>
       <c r="BS21">
-        <v>67</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:71">
@@ -4627,13 +4615,13 @@
         <v>28</v>
       </c>
       <c r="B22">
-        <v>0.01677540796430169</v>
+        <v>0.01401990004288076</v>
       </c>
       <c r="C22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -4645,13 +4633,13 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="K22">
-        <v>0.0006270285133498809</v>
+        <v>0.0006135437133524702</v>
       </c>
       <c r="L22">
         <v>2</v>
@@ -4669,19 +4657,19 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="T22">
-        <v>0.01659228408012097</v>
+        <v>0.01686643354266636</v>
       </c>
       <c r="U22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W22">
         <v>1</v>
@@ -4693,13 +4681,13 @@
         <v>0</v>
       </c>
       <c r="Z22">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AB22" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AC22">
-        <v>0.0007301839995630132</v>
+        <v>0.0006661311995753127</v>
       </c>
       <c r="AD22">
         <v>2</v>
@@ -4717,19 +4705,19 @@
         <v>0</v>
       </c>
       <c r="AI22">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AK22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="AL22">
-        <v>0.01656162272429269</v>
+        <v>0.01754209419641202</v>
       </c>
       <c r="AM22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO22">
         <v>1</v>
@@ -4741,13 +4729,13 @@
         <v>0</v>
       </c>
       <c r="AR22">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AT22" s="1" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="AU22">
-        <v>0.0008809497101822067</v>
+        <v>0.0007429898332856213</v>
       </c>
       <c r="AV22">
         <v>2</v>
@@ -4765,19 +4753,19 @@
         <v>0</v>
       </c>
       <c r="BA22">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="BC22" s="1" t="s">
         <v>28</v>
       </c>
       <c r="BD22">
-        <v>0.01654898571794006</v>
+        <v>0.01784471706117391</v>
       </c>
       <c r="BE22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG22">
         <v>1</v>
@@ -4789,13 +4777,13 @@
         <v>0</v>
       </c>
       <c r="BJ22">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BL22" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="BM22">
-        <v>0.001122174847172916</v>
+        <v>0.0008403423302864241</v>
       </c>
       <c r="BN22">
         <v>2</v>
@@ -4813,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="BS22">
-        <v>5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:71">
@@ -4821,13 +4809,13 @@
         <v>29</v>
       </c>
       <c r="B23">
-        <v>0.016760586905242</v>
+        <v>0.01399404326480089</v>
       </c>
       <c r="C23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -4839,13 +4827,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="K23">
-        <v>0.0006263542508918705</v>
+        <v>0.0006121952229874339</v>
       </c>
       <c r="L23">
         <v>2</v>
@@ -4863,19 +4851,19 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="T23">
-        <v>0.01657527883633288</v>
+        <v>0.01682675280544479</v>
       </c>
       <c r="U23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="W23">
         <v>1</v>
@@ -4887,13 +4875,13 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AC23">
-        <v>0.0007269812528874641</v>
+        <v>0.0006597258703413901</v>
       </c>
       <c r="AD23">
         <v>2</v>
@@ -4911,19 +4899,19 @@
         <v>0</v>
       </c>
       <c r="AI23">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="AK23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="AL23">
-        <v>0.01654425177143584</v>
+        <v>0.01749913216800884</v>
       </c>
       <c r="AM23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AN23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO23">
         <v>1</v>
@@ -4935,13 +4923,13 @@
         <v>0</v>
       </c>
       <c r="AR23">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="AT23" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="AU23">
-        <v>0.000874051486573332</v>
+        <v>0.0007291937395510186</v>
       </c>
       <c r="AV23">
         <v>2</v>
@@ -4959,19 +4947,19 @@
         <v>0</v>
       </c>
       <c r="BA23">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="BC23" s="1" t="s">
         <v>29</v>
       </c>
       <c r="BD23">
-        <v>0.01653146403894274</v>
+        <v>0.017800285369365</v>
       </c>
       <c r="BE23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BF23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BG23">
         <v>1</v>
@@ -4983,13 +4971,13 @@
         <v>0</v>
       </c>
       <c r="BJ23">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="BL23" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="BM23">
-        <v>0.00110936386047072</v>
+        <v>0.0008403423302864241</v>
       </c>
       <c r="BN23">
         <v>2</v>
@@ -5007,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="BS23">
-        <v>6</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:71">
@@ -5015,7 +5003,7 @@
         <v>30</v>
       </c>
       <c r="B24">
-        <v>0.015257264856318</v>
+        <v>0.01398111487576095</v>
       </c>
       <c r="C24">
         <v>2</v>
@@ -5036,10 +5024,10 @@
         <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="K24">
-        <v>0.0006256799884338602</v>
+        <v>0.0006121952229874339</v>
       </c>
       <c r="L24">
         <v>2</v>
@@ -5057,13 +5045,13 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="T24">
-        <v>0.01617807253584073</v>
+        <v>0.01680691243683401</v>
       </c>
       <c r="U24">
         <v>2</v>
@@ -5084,10 +5072,10 @@
         <v>11</v>
       </c>
       <c r="AB24" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AC24">
-        <v>0.0007237785062119153</v>
+        <v>0.0006597258703413901</v>
       </c>
       <c r="AD24">
         <v>2</v>
@@ -5105,13 +5093,13 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="AK24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="AL24">
-        <v>0.01633224801129859</v>
+        <v>0.01747765115380725</v>
       </c>
       <c r="AM24">
         <v>2</v>
@@ -5132,10 +5120,10 @@
         <v>11</v>
       </c>
       <c r="AT24" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="AU24">
-        <v>0.0008671532629644573</v>
+        <v>0.0007291937395510186</v>
       </c>
       <c r="AV24">
         <v>2</v>
@@ -5153,13 +5141,13 @@
         <v>0</v>
       </c>
       <c r="BA24">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="BC24" s="1" t="s">
         <v>30</v>
       </c>
       <c r="BD24">
-        <v>0.01639579107422421</v>
+        <v>0.01777806952346055</v>
       </c>
       <c r="BE24">
         <v>2</v>
@@ -5180,16 +5168,16 @@
         <v>11</v>
       </c>
       <c r="BL24" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="BM24">
-        <v>0.001096552873768525</v>
+        <v>0.0007353072192515012</v>
       </c>
       <c r="BN24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP24">
         <v>0</v>
@@ -5201,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="BS24">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:71">
@@ -5209,7 +5197,7 @@
         <v>31</v>
       </c>
       <c r="B25">
-        <v>0.015257264856318</v>
+        <v>0.01396818648672102</v>
       </c>
       <c r="C25">
         <v>2</v>
@@ -5227,13 +5215,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K25">
-        <v>0.0006243314635178396</v>
+        <v>0.0005953390934244796</v>
       </c>
       <c r="L25">
         <v>2</v>
@@ -5251,13 +5239,13 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="T25">
-        <v>0.01617807253584073</v>
+        <v>0.01678707206822323</v>
       </c>
       <c r="U25">
         <v>2</v>
@@ -5275,13 +5263,13 @@
         <v>0</v>
       </c>
       <c r="Z25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB25" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="AC25">
-        <v>0.0007173730128608174</v>
+        <v>0.0005796592549173574</v>
       </c>
       <c r="AD25">
         <v>2</v>
@@ -5299,13 +5287,13 @@
         <v>0</v>
       </c>
       <c r="AI25">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="AK25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="AL25">
-        <v>0.01633224801129859</v>
+        <v>0.01745617013960565</v>
       </c>
       <c r="AM25">
         <v>2</v>
@@ -5323,19 +5311,19 @@
         <v>0</v>
       </c>
       <c r="AR25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT25" s="1" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AU25">
-        <v>0.000853356815746708</v>
+        <v>0.00058040246688713</v>
       </c>
       <c r="AV25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX25">
         <v>0</v>
@@ -5347,13 +5335,13 @@
         <v>0</v>
       </c>
       <c r="BA25">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BC25" s="1" t="s">
         <v>31</v>
       </c>
       <c r="BD25">
-        <v>0.01639579107422421</v>
+        <v>0.01775585367755609</v>
       </c>
       <c r="BE25">
         <v>2</v>
@@ -5371,19 +5359,19 @@
         <v>0</v>
       </c>
       <c r="BJ25">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BL25" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="BM25">
-        <v>0.001070930900364133</v>
+        <v>0.0007353072192515012</v>
       </c>
       <c r="BN25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP25">
         <v>0</v>
@@ -5395,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="BS25">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:71">
@@ -5403,7 +5391,7 @@
         <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01524244379725831</v>
+        <v>0.01396818648672102</v>
       </c>
       <c r="C26">
         <v>2</v>
@@ -5421,13 +5409,13 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="K26">
-        <v>0.000622982938601819</v>
+        <v>0.000581179944591598</v>
       </c>
       <c r="L26">
         <v>2</v>
@@ -5445,13 +5433,13 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="T26">
-        <v>0.01616106729205264</v>
+        <v>0.01678707206822323</v>
       </c>
       <c r="U26">
         <v>2</v>
@@ -5469,13 +5457,13 @@
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="AC26">
-        <v>0.0007109675195097194</v>
+        <v>0.0005124032979611699</v>
       </c>
       <c r="AD26">
         <v>2</v>
@@ -5493,13 +5481,13 @@
         <v>0</v>
       </c>
       <c r="AI26">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="AK26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="AL26">
-        <v>0.01631487705844173</v>
+        <v>0.01745617013960565</v>
       </c>
       <c r="AM26">
         <v>2</v>
@@ -5517,19 +5505,19 @@
         <v>0</v>
       </c>
       <c r="AR26">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AT26" s="1" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AU26">
-        <v>0.0008395603685289586</v>
+        <v>0.00058040246688713</v>
       </c>
       <c r="AV26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX26">
         <v>0</v>
@@ -5541,13 +5529,13 @@
         <v>0</v>
       </c>
       <c r="BA26">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BC26" s="1" t="s">
         <v>32</v>
       </c>
       <c r="BD26">
-        <v>0.0163782693952269</v>
+        <v>0.01775585367755609</v>
       </c>
       <c r="BE26">
         <v>2</v>
@@ -5565,19 +5553,19 @@
         <v>0</v>
       </c>
       <c r="BJ26">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BL26" s="1" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="BM26">
-        <v>0.001045308926959741</v>
+        <v>0.0007147855889001328</v>
       </c>
       <c r="BN26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BO26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BP26">
         <v>0</v>
@@ -5589,7 +5577,7 @@
         <v>0</v>
       </c>
       <c r="BS26">
-        <v>11</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:71">
@@ -5597,7 +5585,7 @@
         <v>33</v>
       </c>
       <c r="B27">
-        <v>0.01523750344423841</v>
+        <v>0.01394232970864115</v>
       </c>
       <c r="C27">
         <v>2</v>
@@ -5615,19 +5603,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="K27">
-        <v>0.0006216344136857984</v>
+        <v>0.000417344832819371</v>
       </c>
       <c r="L27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -5639,13 +5627,13 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="S27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="T27">
-        <v>0.01615539887745661</v>
+        <v>0.01674739133100167</v>
       </c>
       <c r="U27">
         <v>2</v>
@@ -5663,19 +5651,19 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AB27" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="AC27">
-        <v>0.0007045620261586215</v>
+        <v>0.0004835869966593981</v>
       </c>
       <c r="AD27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -5687,13 +5675,13 @@
         <v>0</v>
       </c>
       <c r="AI27">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AK27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="AL27">
-        <v>0.01630908674082279</v>
+        <v>0.01741320811120247</v>
       </c>
       <c r="AM27">
         <v>2</v>
@@ -5711,19 +5699,19 @@
         <v>0</v>
       </c>
       <c r="AR27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT27" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AU27">
-        <v>0.0008257639213112093</v>
+        <v>0.0005666063731525274</v>
       </c>
       <c r="AV27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX27">
         <v>0</v>
@@ -5735,13 +5723,13 @@
         <v>0</v>
       </c>
       <c r="BA27">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="BC27" s="1" t="s">
         <v>33</v>
       </c>
       <c r="BD27">
-        <v>0.01637242883556113</v>
+        <v>0.01771142198574718</v>
       </c>
       <c r="BE27">
         <v>2</v>
@@ -5759,19 +5747,19 @@
         <v>0</v>
       </c>
       <c r="BJ27">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BL27" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="BM27">
-        <v>0.00101968695355535</v>
+        <v>0.0007096859023158107</v>
       </c>
       <c r="BN27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP27">
         <v>0</v>
@@ -5783,7 +5771,7 @@
         <v>0</v>
       </c>
       <c r="BS27">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:71">
@@ -5791,7 +5779,7 @@
         <v>34</v>
       </c>
       <c r="B28">
-        <v>0.01522268238517872</v>
+        <v>0.01392940131960121</v>
       </c>
       <c r="C28">
         <v>2</v>
@@ -5809,19 +5797,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="K28">
-        <v>0.0006196116263117675</v>
+        <v>0.000417344832819371</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -5833,13 +5821,13 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="S28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="T28">
-        <v>0.01613839363366852</v>
+        <v>0.01672755096239088</v>
       </c>
       <c r="U28">
         <v>2</v>
@@ -5857,19 +5845,19 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AB28" s="1" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="AC28">
-        <v>0.0006949537861319747</v>
+        <v>0.0004835869966593981</v>
       </c>
       <c r="AD28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -5881,13 +5869,13 @@
         <v>0</v>
       </c>
       <c r="AI28">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AK28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="AL28">
-        <v>0.01629171578796593</v>
+        <v>0.01739172709700088</v>
       </c>
       <c r="AM28">
         <v>2</v>
@@ -5905,19 +5893,19 @@
         <v>0</v>
       </c>
       <c r="AR28">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AT28" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AU28">
-        <v>0.0008050692504845854</v>
+        <v>0.0005597083262852262</v>
       </c>
       <c r="AV28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX28">
         <v>0</v>
@@ -5929,13 +5917,13 @@
         <v>0</v>
       </c>
       <c r="BA28">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BC28" s="1" t="s">
         <v>34</v>
       </c>
       <c r="BD28">
-        <v>0.01635490715656382</v>
+        <v>0.01768920613984273</v>
       </c>
       <c r="BE28">
         <v>2</v>
@@ -5953,19 +5941,19 @@
         <v>0</v>
       </c>
       <c r="BJ28">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="BL28" s="1" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="BM28">
-        <v>0.0009812539934487623</v>
+        <v>0.0006968752438479654</v>
       </c>
       <c r="BN28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP28">
         <v>0</v>
@@ -5977,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="BS28">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="29" spans="1:71">
@@ -5985,7 +5973,7 @@
         <v>35</v>
       </c>
       <c r="B29">
-        <v>0.01521774203215882</v>
+        <v>0.01390354454152135</v>
       </c>
       <c r="C29">
         <v>2</v>
@@ -6003,19 +5991,19 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="K29">
-        <v>0.0006041035897775305</v>
+        <v>0.0004159963424543346</v>
       </c>
       <c r="L29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -6027,13 +6015,13 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="S29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="T29">
-        <v>0.01613272521907249</v>
+        <v>0.01668787022516932</v>
       </c>
       <c r="U29">
         <v>2</v>
@@ -6051,19 +6039,19 @@
         <v>0</v>
       </c>
       <c r="Z29">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB29" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="AC29">
-        <v>0.0006212906125943489</v>
+        <v>0.0004771816674254754</v>
       </c>
       <c r="AD29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF29">
         <v>0</v>
@@ -6075,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="AI29">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="AK29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="AL29">
-        <v>0.01628592547034698</v>
+        <v>0.0173487650685977</v>
       </c>
       <c r="AM29">
         <v>2</v>
@@ -6099,13 +6087,13 @@
         <v>0</v>
       </c>
       <c r="AR29">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AT29" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="AU29">
-        <v>0.0006464101074804681</v>
+        <v>0.0005567425678684864</v>
       </c>
       <c r="AV29">
         <v>2</v>
@@ -6123,13 +6111,13 @@
         <v>0</v>
       </c>
       <c r="BA29">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="BC29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="BD29">
-        <v>0.01634906659689804</v>
+        <v>0.01764477444803382</v>
       </c>
       <c r="BE29">
         <v>2</v>
@@ -6147,13 +6135,13 @@
         <v>0</v>
       </c>
       <c r="BJ29">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="BL29" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="BM29">
-        <v>0.0007737385381863358</v>
+        <v>0.0006840645853801202</v>
       </c>
       <c r="BN29">
         <v>1</v>
@@ -6171,7 +6159,7 @@
         <v>0</v>
       </c>
       <c r="BS29">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:71">
@@ -6179,7 +6167,7 @@
         <v>36</v>
       </c>
       <c r="B30">
-        <v>0.01519304026705934</v>
+        <v>0.01389061615248141</v>
       </c>
       <c r="C30">
         <v>2</v>
@@ -6197,19 +6185,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="K30">
-        <v>0.0005885955532432934</v>
+        <v>0.0004153220972718164</v>
       </c>
       <c r="L30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -6221,13 +6209,13 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="S30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="T30">
-        <v>0.01610438314609234</v>
+        <v>0.01666802985655854</v>
       </c>
       <c r="U30">
         <v>2</v>
@@ -6245,19 +6233,19 @@
         <v>0</v>
       </c>
       <c r="Z30">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AB30" s="1" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="AC30">
-        <v>0.000547627439056723</v>
+        <v>0.0004739790028085141</v>
       </c>
       <c r="AD30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AF30">
         <v>0</v>
@@ -6269,13 +6257,13 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="AK30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="AL30">
-        <v>0.01625697388225222</v>
+        <v>0.0173272840543961</v>
       </c>
       <c r="AM30">
         <v>2</v>
@@ -6293,13 +6281,13 @@
         <v>0</v>
       </c>
       <c r="AR30">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="AT30" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AU30">
-        <v>0.000601096254005887</v>
+        <v>0.0005528102794179249</v>
       </c>
       <c r="AV30">
         <v>1</v>
@@ -6317,13 +6305,13 @@
         <v>0</v>
       </c>
       <c r="BA30">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC30" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BD30">
-        <v>0.01631986379856919</v>
+        <v>0.01762255860212936</v>
       </c>
       <c r="BE30">
         <v>2</v>
@@ -6341,13 +6329,13 @@
         <v>0</v>
       </c>
       <c r="BJ30">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="BL30" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="BM30">
-        <v>0.0007353055780797484</v>
+        <v>0.0006712539269122749</v>
       </c>
       <c r="BN30">
         <v>1</v>
@@ -6365,7 +6353,7 @@
         <v>0</v>
       </c>
       <c r="BS30">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:71">
@@ -6373,7 +6361,7 @@
         <v>37</v>
       </c>
       <c r="B31">
-        <v>0.01514857708988026</v>
+        <v>0.01386475937440155</v>
       </c>
       <c r="C31">
         <v>2</v>
@@ -6391,13 +6379,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K31">
-        <v>0.0004193675338159412</v>
+        <v>0.0004146478520892982</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -6415,13 +6403,13 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="T31">
-        <v>0.01605336741472806</v>
+        <v>0.01662834911933697</v>
       </c>
       <c r="U31">
         <v>2</v>
@@ -6439,13 +6427,13 @@
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="AB31" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="AC31">
-        <v>0.0004931948263931067</v>
+        <v>0.0004707763381915528</v>
       </c>
       <c r="AD31">
         <v>1</v>
@@ -6463,13 +6451,13 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AK31" s="1" t="s">
         <v>37</v>
       </c>
       <c r="AL31">
-        <v>0.01620486102368165</v>
+        <v>0.01728432202599292</v>
       </c>
       <c r="AM31">
         <v>2</v>
@@ -6487,13 +6475,13 @@
         <v>0</v>
       </c>
       <c r="AR31">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="AT31" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AU31">
-        <v>0.0005804015831792632</v>
+        <v>0.0005459122325506236</v>
       </c>
       <c r="AV31">
         <v>1</v>
@@ -6511,19 +6499,19 @@
         <v>0</v>
       </c>
       <c r="BA31">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BC31" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="BD31">
-        <v>0.01627179922883722</v>
+        <v>0.01757812691032045</v>
       </c>
       <c r="BE31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG31">
         <v>1</v>
@@ -6535,19 +6523,19 @@
         <v>0</v>
       </c>
       <c r="BJ31">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="BL31" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="BM31">
-        <v>0.0006866012992982589</v>
+        <v>0.0006328219515087392</v>
       </c>
       <c r="BN31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP31">
         <v>0</v>
@@ -6559,7 +6547,7 @@
         <v>0</v>
       </c>
       <c r="BS31">
-        <v>39</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:71">
@@ -6567,7 +6555,7 @@
         <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01512881567780067</v>
+        <v>0.01381304581824181</v>
       </c>
       <c r="C32">
         <v>2</v>
@@ -6585,13 +6573,13 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="K32">
-        <v>0.0004173447464419103</v>
+        <v>0.0004139736069067801</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -6609,13 +6597,13 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="T32">
-        <v>0.01603069375634394</v>
+        <v>0.01654898764489385</v>
       </c>
       <c r="U32">
         <v>2</v>
@@ -6633,13 +6621,13 @@
         <v>0</v>
       </c>
       <c r="Z32">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="AB32" s="1" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AC32">
-        <v>0.0004835865863664599</v>
+        <v>0.0004675736735745915</v>
       </c>
       <c r="AD32">
         <v>1</v>
@@ -6657,13 +6645,13 @@
         <v>0</v>
       </c>
       <c r="AI32">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AK32" s="1" t="s">
         <v>38</v>
       </c>
       <c r="AL32">
-        <v>0.01618169975320585</v>
+        <v>0.01719839796918655</v>
       </c>
       <c r="AM32">
         <v>2</v>
@@ -6681,13 +6669,13 @@
         <v>0</v>
       </c>
       <c r="AR32">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="AT32" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AU32">
-        <v>0.0005045211234816419</v>
+        <v>0.0005252180919487197</v>
       </c>
       <c r="AV32">
         <v>1</v>
@@ -6705,19 +6693,19 @@
         <v>0</v>
       </c>
       <c r="BA32">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BC32" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="BD32">
-        <v>0.01627179922883722</v>
+        <v>0.01748926352670263</v>
       </c>
       <c r="BE32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG32">
         <v>1</v>
@@ -6729,13 +6717,13 @@
         <v>0</v>
       </c>
       <c r="BJ32">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="BL32" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="BM32">
-        <v>0.0005943847243555945</v>
+        <v>0.0006200112930408939</v>
       </c>
       <c r="BN32">
         <v>1</v>
@@ -6753,7 +6741,7 @@
         <v>0</v>
       </c>
       <c r="BS32">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:71">
@@ -6761,7 +6749,7 @@
         <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01493614191002468</v>
+        <v>0.01376133226208207</v>
       </c>
       <c r="C33">
         <v>2</v>
@@ -6779,13 +6767,13 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="K33">
-        <v>0.0004099278594037969</v>
+        <v>0.0004119508713592256</v>
       </c>
       <c r="L33">
         <v>1</v>
@@ -6803,13 +6791,13 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="S33" s="1" t="s">
         <v>39</v>
       </c>
       <c r="T33">
-        <v>0.01580962558709876</v>
+        <v>0.01646962617045072</v>
       </c>
       <c r="U33">
         <v>2</v>
@@ -6827,13 +6815,13 @@
         <v>0</v>
       </c>
       <c r="Z33">
-        <v>76</v>
+        <v>28</v>
       </c>
       <c r="AB33" s="1" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AC33">
-        <v>0.0004483563729354214</v>
+        <v>0.0004579656797237076</v>
       </c>
       <c r="AD33">
         <v>1</v>
@@ -6851,19 +6839,19 @@
         <v>0</v>
       </c>
       <c r="AI33">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AK33" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AL33">
-        <v>0.01613182488639925</v>
+        <v>0.01711247391238019</v>
       </c>
       <c r="AM33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO33">
         <v>1</v>
@@ -6875,19 +6863,19 @@
         <v>0</v>
       </c>
       <c r="AR33">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="AT33" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AU33">
-        <v>0.0004877509644763508</v>
+        <v>0.0005183200450814184</v>
       </c>
       <c r="AV33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX33">
         <v>0</v>
@@ -6899,13 +6887,13 @@
         <v>0</v>
       </c>
       <c r="BA33">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="BC33" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="BD33">
-        <v>0.01626729876157726</v>
+        <v>0.01740040014308481</v>
       </c>
       <c r="BE33">
         <v>2</v>
@@ -6923,13 +6911,13 @@
         <v>0</v>
       </c>
       <c r="BJ33">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="BL33" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="BM33">
-        <v>0.0005303297908446156</v>
+        <v>0.0005303366837659772</v>
       </c>
       <c r="BN33">
         <v>1</v>
@@ -6955,13 +6943,13 @@
         <v>40</v>
       </c>
       <c r="B34">
-        <v>0.01376382351343379</v>
+        <v>0.0136966903168824</v>
       </c>
       <c r="C34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -6973,13 +6961,13 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="K34">
-        <v>0.0004065565471137453</v>
+        <v>0.0004112766261767074</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -6997,19 +6985,19 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="S34" s="1" t="s">
         <v>40</v>
       </c>
       <c r="T34">
-        <v>0.01579220306454064</v>
+        <v>0.01637042432739681</v>
       </c>
       <c r="U34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W34">
         <v>1</v>
@@ -7021,13 +7009,13 @@
         <v>0</v>
       </c>
       <c r="Z34">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="AB34" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="AC34">
-        <v>0.0004323426395576767</v>
+        <v>0.0004547630151067462</v>
       </c>
       <c r="AD34">
         <v>1</v>
@@ -7045,19 +7033,19 @@
         <v>0</v>
       </c>
       <c r="AI34">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AK34" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AL34">
-        <v>0.01613182488639925</v>
+        <v>0.01700506884137223</v>
       </c>
       <c r="AM34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO34">
         <v>1</v>
@@ -7069,13 +7057,13 @@
         <v>0</v>
       </c>
       <c r="AR34">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="AT34" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AU34">
-        <v>0.0004700300054372685</v>
+        <v>0.0004700337170103094</v>
       </c>
       <c r="AV34">
         <v>1</v>
@@ -7096,10 +7084,10 @@
         <v>20</v>
       </c>
       <c r="BC34" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="BD34">
-        <v>0.01626595866917145</v>
+        <v>0.01732835980547508</v>
       </c>
       <c r="BE34">
         <v>1</v>
@@ -7117,19 +7105,19 @@
         <v>0</v>
       </c>
       <c r="BJ34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BL34" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="BM34">
-        <v>0.0004406528839292449</v>
+        <v>0.0005200758685902929</v>
       </c>
       <c r="BN34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP34">
         <v>0</v>
@@ -7141,7 +7129,7 @@
         <v>0</v>
       </c>
       <c r="BS34">
-        <v>27</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:71">
@@ -7149,13 +7137,13 @@
         <v>41</v>
       </c>
       <c r="B35">
-        <v>0.01376382351343379</v>
+        <v>0.01364497676072266</v>
       </c>
       <c r="C35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -7167,13 +7155,13 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="K35">
-        <v>0.0004018367099076732</v>
+        <v>0.0004065569098990802</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -7191,19 +7179,19 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="S35" s="1" t="s">
         <v>41</v>
       </c>
       <c r="T35">
-        <v>0.01579220306454064</v>
+        <v>0.01629106285295368</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W35">
         <v>1</v>
@@ -7215,13 +7203,13 @@
         <v>0</v>
       </c>
       <c r="Z35">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="AB35" s="1" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="AC35">
-        <v>0.000409923412828834</v>
+        <v>0.0004323443627880171</v>
       </c>
       <c r="AD35">
         <v>1</v>
@@ -7239,19 +7227,19 @@
         <v>0</v>
       </c>
       <c r="AI35">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="AK35" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AL35">
-        <v>0.01612603456878029</v>
+        <v>0.01691914478456586</v>
       </c>
       <c r="AM35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO35">
         <v>1</v>
@@ -7263,19 +7251,19 @@
         <v>0</v>
       </c>
       <c r="AR35">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="AT35" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="AU35">
-        <v>0.0004217424401751459</v>
+        <v>0.0004118835836551594</v>
       </c>
       <c r="AV35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX35">
         <v>0</v>
@@ -7287,19 +7275,19 @@
         <v>0</v>
       </c>
       <c r="BA35">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="BC35" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="BD35">
-        <v>0.01626011810950567</v>
+        <v>0.01728932091356253</v>
       </c>
       <c r="BE35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG35">
         <v>1</v>
@@ -7311,13 +7299,13 @@
         <v>0</v>
       </c>
       <c r="BJ35">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="BL35" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="BM35">
-        <v>0.0004278418972270491</v>
+        <v>0.0003766087821518342</v>
       </c>
       <c r="BN35">
         <v>1</v>
@@ -7335,7 +7323,7 @@
         <v>0</v>
       </c>
       <c r="BS35">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="36" spans="1:71">
@@ -7343,13 +7331,13 @@
         <v>42</v>
       </c>
       <c r="B36">
-        <v>0.0137588831604139</v>
+        <v>0.01314076958816523</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -7361,13 +7349,13 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K36">
-        <v>0.0004011624474496629</v>
+        <v>0.0003984659677088621</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -7385,19 +7373,19 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="S36" s="1" t="s">
         <v>42</v>
       </c>
       <c r="T36">
-        <v>0.01578653464994461</v>
+        <v>0.01551728847713319</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W36">
         <v>1</v>
@@ -7409,13 +7397,13 @@
         <v>0</v>
       </c>
       <c r="Z36">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="AB36" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AC36">
-        <v>0.000406720666153285</v>
+        <v>0.0003939123873844813</v>
       </c>
       <c r="AD36">
         <v>1</v>
@@ -7433,13 +7421,13 @@
         <v>0</v>
       </c>
       <c r="AI36">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AK36" s="1" t="s">
         <v>43</v>
       </c>
       <c r="AL36">
-        <v>0.01612024425116134</v>
+        <v>0.01675519107724151</v>
       </c>
       <c r="AM36">
         <v>1</v>
@@ -7457,13 +7445,13 @@
         <v>0</v>
       </c>
       <c r="AR36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AT36" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AU36">
-        <v>0.0004148442165662711</v>
+        <v>0.000387257154602694</v>
       </c>
       <c r="AV36">
         <v>1</v>
@@ -7481,13 +7469,13 @@
         <v>0</v>
       </c>
       <c r="BA36">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="BC36" s="1" t="s">
         <v>44</v>
       </c>
       <c r="BD36">
-        <v>0.0162542775498399</v>
+        <v>0.01721728057595281</v>
       </c>
       <c r="BE36">
         <v>1</v>
@@ -7505,19 +7493,19 @@
         <v>0</v>
       </c>
       <c r="BJ36">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL36" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="BM36">
-        <v>0.0003919486051477554</v>
+        <v>0.000363798123683989</v>
       </c>
       <c r="BN36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO36">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP36">
         <v>0</v>
@@ -7529,7 +7517,7 @@
         <v>0</v>
       </c>
       <c r="BS36">
-        <v>62</v>
+        <v>33</v>
       </c>
     </row>
     <row r="37" spans="1:71">
@@ -7537,7 +7525,7 @@
         <v>43</v>
       </c>
       <c r="B37">
-        <v>0.013753942807394</v>
+        <v>0.01008414345114873</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -7555,13 +7543,13 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K37">
-        <v>0.0003883514607474671</v>
+        <v>0.000397791722526344</v>
       </c>
       <c r="L37">
         <v>1</v>
@@ -7579,13 +7567,13 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="S37" s="1" t="s">
         <v>43</v>
       </c>
       <c r="T37">
-        <v>0.01578086623534858</v>
+        <v>0.01547548751640989</v>
       </c>
       <c r="U37">
         <v>1</v>
@@ -7603,13 +7591,13 @@
         <v>0</v>
       </c>
       <c r="Z37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AC37">
-        <v>0.000345868479317855</v>
+        <v>0.00039070972276752</v>
       </c>
       <c r="AD37">
         <v>1</v>
@@ -7627,13 +7615,13 @@
         <v>0</v>
       </c>
       <c r="AI37">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="AK37" s="1" t="s">
         <v>44</v>
       </c>
       <c r="AL37">
-        <v>0.01611445393354239</v>
+        <v>0.01664778600623356</v>
       </c>
       <c r="AM37">
         <v>1</v>
@@ -7651,13 +7639,13 @@
         <v>0</v>
       </c>
       <c r="AR37">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT37" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AU37">
-        <v>0.0002837779679976527</v>
+        <v>0.0003803591077353926</v>
       </c>
       <c r="AV37">
         <v>1</v>
@@ -7675,19 +7663,19 @@
         <v>0</v>
       </c>
       <c r="BA37">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="BC37" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="BD37">
-        <v>0.01624843699017413</v>
+        <v>0.01720045752994471</v>
       </c>
       <c r="BE37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG37">
         <v>1</v>
@@ -7699,19 +7687,19 @@
         <v>0</v>
       </c>
       <c r="BJ37">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="BL37" s="1" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="BM37">
-        <v>0.0001844331498853289</v>
+        <v>0.0002510520407655427</v>
       </c>
       <c r="BN37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BO37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BP37">
         <v>0</v>
@@ -7723,7 +7711,7 @@
         <v>0</v>
       </c>
       <c r="BS37">
-        <v>47</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:71">
@@ -7731,7 +7719,7 @@
         <v>44</v>
       </c>
       <c r="B38">
-        <v>0.0137490024543741</v>
+        <v>0.01001950150594906</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -7749,13 +7737,37 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K38">
+        <v>0.0003809355929633897</v>
+      </c>
+      <c r="L38">
+        <v>1</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>0</v>
+      </c>
+      <c r="O38">
+        <v>1</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>58</v>
       </c>
       <c r="S38" s="1" t="s">
         <v>44</v>
       </c>
       <c r="T38">
-        <v>0.01577519782075255</v>
+        <v>0.01537628567335598</v>
       </c>
       <c r="U38">
         <v>1</v>
@@ -7773,13 +7785,37 @@
         <v>0</v>
       </c>
       <c r="Z38">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="AB38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC38">
+        <v>0.0003106431073434872</v>
+      </c>
+      <c r="AD38">
+        <v>1</v>
+      </c>
+      <c r="AE38">
+        <v>1</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>1</v>
+      </c>
+      <c r="AH38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI38">
+        <v>58</v>
       </c>
       <c r="AK38" s="1" t="s">
         <v>45</v>
       </c>
       <c r="AL38">
-        <v>0.01610866361592344</v>
+        <v>0.01658334296362878</v>
       </c>
       <c r="AM38">
         <v>1</v>
@@ -7797,13 +7833,37 @@
         <v>0</v>
       </c>
       <c r="AR38">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="AT38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AU38">
+        <v>0.0002079079360528606</v>
+      </c>
+      <c r="AV38">
+        <v>1</v>
+      </c>
+      <c r="AW38">
+        <v>1</v>
+      </c>
+      <c r="AX38">
+        <v>0</v>
+      </c>
+      <c r="AY38">
+        <v>1</v>
+      </c>
+      <c r="AZ38" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA38">
+        <v>58</v>
       </c>
       <c r="BC38" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="BD38">
-        <v>0.01624843699017413</v>
+        <v>0.01715063303823944</v>
       </c>
       <c r="BE38">
         <v>1</v>
@@ -7821,7 +7881,31 @@
         <v>0</v>
       </c>
       <c r="BJ38">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="BL38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="BM38">
+        <v>4.353166198785784E-05</v>
+      </c>
+      <c r="BN38">
+        <v>1</v>
+      </c>
+      <c r="BO38">
+        <v>1</v>
+      </c>
+      <c r="BP38">
+        <v>0</v>
+      </c>
+      <c r="BQ38">
+        <v>1</v>
+      </c>
+      <c r="BR38" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS38">
+        <v>58</v>
       </c>
     </row>
     <row r="39" spans="1:71">
@@ -7829,7 +7913,7 @@
         <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0137440621013542</v>
+        <v>0.009980716338829253</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -7847,13 +7931,37 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K39">
+        <v>0.0003795871025983533</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0</v>
+      </c>
+      <c r="O39">
+        <v>1</v>
+      </c>
+      <c r="P39" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>60</v>
       </c>
       <c r="S39" s="1" t="s">
         <v>45</v>
       </c>
       <c r="T39">
-        <v>0.01576952940615652</v>
+        <v>0.01531676456752364</v>
       </c>
       <c r="U39">
         <v>1</v>
@@ -7871,13 +7979,37 @@
         <v>0</v>
       </c>
       <c r="Z39">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="AB39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC39">
+        <v>0.0003042377781095646</v>
+      </c>
+      <c r="AD39">
+        <v>1</v>
+      </c>
+      <c r="AE39">
+        <v>1</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>1</v>
+      </c>
+      <c r="AH39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI39">
+        <v>60</v>
       </c>
       <c r="AK39" s="1" t="s">
         <v>46</v>
       </c>
       <c r="AL39">
-        <v>0.01610866361592344</v>
+        <v>0.01658334296362878</v>
       </c>
       <c r="AM39">
         <v>1</v>
@@ -7895,19 +8027,43 @@
         <v>0</v>
       </c>
       <c r="AR39">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="AT39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="AU39">
+        <v>0.0001941118423182579</v>
+      </c>
+      <c r="AV39">
+        <v>1</v>
+      </c>
+      <c r="AW39">
+        <v>1</v>
+      </c>
+      <c r="AX39">
+        <v>0</v>
+      </c>
+      <c r="AY39">
+        <v>1</v>
+      </c>
+      <c r="AZ39" t="b">
+        <v>0</v>
+      </c>
+      <c r="BA39">
+        <v>60</v>
       </c>
       <c r="BC39" s="1" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="BD39">
-        <v>0.01624393652291417</v>
+        <v>0.01715063303823944</v>
       </c>
       <c r="BE39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BG39">
         <v>1</v>
@@ -7919,7 +8075,31 @@
         <v>0</v>
       </c>
       <c r="BJ39">
-        <v>37</v>
+        <v>8</v>
+      </c>
+      <c r="BL39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BM39">
+        <v>1.791034505216728E-05</v>
+      </c>
+      <c r="BN39">
+        <v>1</v>
+      </c>
+      <c r="BO39">
+        <v>1</v>
+      </c>
+      <c r="BP39">
+        <v>0</v>
+      </c>
+      <c r="BQ39">
+        <v>1</v>
+      </c>
+      <c r="BR39" t="b">
+        <v>0</v>
+      </c>
+      <c r="BS39">
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:71">
@@ -7927,7 +8107,7 @@
         <v>46</v>
       </c>
       <c r="B40">
-        <v>0.0137440621013542</v>
+        <v>0.009980716338829253</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -7945,13 +8125,13 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="S40" s="1" t="s">
         <v>46</v>
       </c>
       <c r="T40">
-        <v>0.01576952940615652</v>
+        <v>0.01531676456752364</v>
       </c>
       <c r="U40">
         <v>1</v>
@@ -7969,13 +8149,13 @@
         <v>0</v>
       </c>
       <c r="Z40">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AK40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AL40">
-        <v>0.01609129266306658</v>
+        <v>0.0165403809352256</v>
       </c>
       <c r="AM40">
         <v>1</v>
@@ -7993,13 +8173,13 @@
         <v>0</v>
       </c>
       <c r="AR40">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BC40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="BD40">
-        <v>0.01623091531117682</v>
+        <v>0.01710620134643053</v>
       </c>
       <c r="BE40">
         <v>1</v>
@@ -8017,7 +8197,7 @@
         <v>0</v>
       </c>
       <c r="BJ40">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:71">
@@ -8025,7 +8205,7 @@
         <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01372924104229451</v>
+        <v>0.009954859560749384</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -8043,13 +8223,13 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="S41" s="1" t="s">
         <v>47</v>
       </c>
       <c r="T41">
-        <v>0.01575252416236843</v>
+        <v>0.01527708383030207</v>
       </c>
       <c r="U41">
         <v>1</v>
@@ -8067,13 +8247,13 @@
         <v>0</v>
       </c>
       <c r="Z41">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AK41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="AL41">
-        <v>0.01609129266306658</v>
+        <v>0.01651889992102401</v>
       </c>
       <c r="AM41">
         <v>1</v>
@@ -8091,13 +8271,13 @@
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BC41" s="1" t="s">
         <v>48</v>
       </c>
       <c r="BD41">
-        <v>0.01623091531117682</v>
+        <v>0.01708398550052608</v>
       </c>
       <c r="BE41">
         <v>1</v>
@@ -8115,7 +8295,7 @@
         <v>0</v>
       </c>
       <c r="BJ41">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="1:71">
@@ -8123,7 +8303,7 @@
         <v>48</v>
       </c>
       <c r="B42">
-        <v>0.01372924104229451</v>
+        <v>0.009941931171709452</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -8141,13 +8321,13 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S42" s="1" t="s">
         <v>48</v>
       </c>
       <c r="T42">
-        <v>0.01575252416236843</v>
+        <v>0.01525724346169129</v>
       </c>
       <c r="U42">
         <v>1</v>
@@ -8165,13 +8345,13 @@
         <v>0</v>
       </c>
       <c r="Z42">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AK42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="AL42">
-        <v>0.01609129266306658</v>
+        <v>0.01651889992102401</v>
       </c>
       <c r="AM42">
         <v>1</v>
@@ -8189,13 +8369,13 @@
         <v>0</v>
       </c>
       <c r="AR42">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BC42" s="1" t="s">
         <v>49</v>
       </c>
       <c r="BD42">
-        <v>0.01623091531117682</v>
+        <v>0.01708398550052608</v>
       </c>
       <c r="BE42">
         <v>1</v>
@@ -8213,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="BJ42">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" spans="1:71">
@@ -8221,7 +8401,7 @@
         <v>49</v>
       </c>
       <c r="B43">
-        <v>0.01372924104229451</v>
+        <v>0.009941931171709452</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -8239,13 +8419,13 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="S43" s="1" t="s">
         <v>49</v>
       </c>
       <c r="T43">
-        <v>0.01575252416236843</v>
+        <v>0.01525724346169129</v>
       </c>
       <c r="U43">
         <v>1</v>
@@ -8263,13 +8443,13 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AK43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="AL43">
-        <v>0.01607971202782868</v>
+        <v>0.01647593789262082</v>
       </c>
       <c r="AM43">
         <v>1</v>
@@ -8287,13 +8467,13 @@
         <v>0</v>
       </c>
       <c r="AR43">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BC43" s="1" t="s">
         <v>50</v>
       </c>
       <c r="BD43">
-        <v>0.01621923419184528</v>
+        <v>0.01703955380871717</v>
       </c>
       <c r="BE43">
         <v>1</v>
@@ -8311,7 +8491,7 @@
         <v>0</v>
       </c>
       <c r="BJ43">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:71">
@@ -8319,7 +8499,7 @@
         <v>50</v>
       </c>
       <c r="B44">
-        <v>0.01371936033625472</v>
+        <v>0.009916074393629581</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -8337,13 +8517,13 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S44" s="1" t="s">
         <v>50</v>
       </c>
       <c r="T44">
-        <v>0.01574118733317637</v>
+        <v>0.01521756272446972</v>
       </c>
       <c r="U44">
         <v>1</v>
@@ -8361,13 +8541,13 @@
         <v>0</v>
       </c>
       <c r="Z44">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AK44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="AL44">
-        <v>0.01607392171020973</v>
+        <v>0.01645445687841923</v>
       </c>
       <c r="AM44">
         <v>1</v>
@@ -8385,13 +8565,13 @@
         <v>0</v>
       </c>
       <c r="AR44">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BC44" s="1" t="s">
         <v>51</v>
       </c>
       <c r="BD44">
-        <v>0.01621339363217951</v>
+        <v>0.01701733796281271</v>
       </c>
       <c r="BE44">
         <v>1</v>
@@ -8409,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="BJ44">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:71">
@@ -8417,7 +8597,7 @@
         <v>51</v>
       </c>
       <c r="B45">
-        <v>0.01371441998323482</v>
+        <v>0.009903146004589646</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -8435,13 +8615,13 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S45" s="1" t="s">
         <v>51</v>
       </c>
       <c r="T45">
-        <v>0.01573551891858034</v>
+        <v>0.01519772235585894</v>
       </c>
       <c r="U45">
         <v>1</v>
@@ -8459,13 +8639,13 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AK45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AL45">
-        <v>0.01607392171020973</v>
+        <v>0.01645445687841923</v>
       </c>
       <c r="AM45">
         <v>1</v>
@@ -8483,13 +8663,13 @@
         <v>0</v>
       </c>
       <c r="AR45">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BC45" s="1" t="s">
         <v>52</v>
       </c>
       <c r="BD45">
-        <v>0.01621339363217951</v>
+        <v>0.01701733796281271</v>
       </c>
       <c r="BE45">
         <v>1</v>
@@ -8507,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="BJ45">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="46" spans="1:71">
@@ -8515,7 +8695,7 @@
         <v>52</v>
       </c>
       <c r="B46">
-        <v>0.01371441998323482</v>
+        <v>0.009903146004589646</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -8533,13 +8713,13 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S46" s="1" t="s">
         <v>52</v>
       </c>
       <c r="T46">
-        <v>0.01573551891858034</v>
+        <v>0.01519772235585894</v>
       </c>
       <c r="U46">
         <v>1</v>
@@ -8557,13 +8737,13 @@
         <v>0</v>
       </c>
       <c r="Z46">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AK46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="AL46">
-        <v>0.01607392171020973</v>
+        <v>0.01645445687841923</v>
       </c>
       <c r="AM46">
         <v>1</v>
@@ -8581,13 +8761,13 @@
         <v>0</v>
       </c>
       <c r="AR46">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BC46" s="1" t="s">
         <v>53</v>
       </c>
       <c r="BD46">
-        <v>0.01621339363217951</v>
+        <v>0.01701733796281271</v>
       </c>
       <c r="BE46">
         <v>1</v>
@@ -8605,7 +8785,7 @@
         <v>0</v>
       </c>
       <c r="BJ46">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47" spans="1:71">
@@ -8613,7 +8793,7 @@
         <v>53</v>
       </c>
       <c r="B47">
-        <v>0.01371441998323482</v>
+        <v>0.009903146004589646</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -8631,13 +8811,13 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S47" s="1" t="s">
         <v>53</v>
       </c>
       <c r="T47">
-        <v>0.01573551891858034</v>
+        <v>0.01519772235585894</v>
       </c>
       <c r="U47">
         <v>1</v>
@@ -8655,13 +8835,13 @@
         <v>0</v>
       </c>
       <c r="Z47">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AK47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="AL47">
-        <v>0.01607392171020973</v>
+        <v>0.01645445687841923</v>
       </c>
       <c r="AM47">
         <v>1</v>
@@ -8679,13 +8859,13 @@
         <v>0</v>
       </c>
       <c r="AR47">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BC47" s="1" t="s">
         <v>54</v>
       </c>
       <c r="BD47">
-        <v>0.01621339363217951</v>
+        <v>0.01701733796281271</v>
       </c>
       <c r="BE47">
         <v>1</v>
@@ -8703,7 +8883,7 @@
         <v>0</v>
       </c>
       <c r="BJ47">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="48" spans="1:71">
@@ -8711,7 +8891,7 @@
         <v>54</v>
       </c>
       <c r="B48">
-        <v>0.01371441998323482</v>
+        <v>0.009903146004589646</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -8729,13 +8909,13 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="S48" s="1" t="s">
         <v>54</v>
       </c>
       <c r="T48">
-        <v>0.01573551891858034</v>
+        <v>0.01519772235585894</v>
       </c>
       <c r="U48">
         <v>1</v>
@@ -8753,13 +8933,13 @@
         <v>0</v>
       </c>
       <c r="Z48">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AK48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="AL48">
-        <v>0.01606813139259078</v>
+        <v>0.01643297586421764</v>
       </c>
       <c r="AM48">
         <v>1</v>
@@ -8777,13 +8957,13 @@
         <v>0</v>
       </c>
       <c r="AR48">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BC48" s="1" t="s">
         <v>55</v>
       </c>
       <c r="BD48">
-        <v>0.01620755307251374</v>
+        <v>0.01699512211690826</v>
       </c>
       <c r="BE48">
         <v>1</v>
@@ -8801,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="BJ48">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="49" spans="1:62">
@@ -8809,7 +8989,7 @@
         <v>55</v>
       </c>
       <c r="B49">
-        <v>0.01370947963021492</v>
+        <v>0.009890217615549713</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -8827,13 +9007,13 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S49" s="1" t="s">
         <v>55</v>
       </c>
       <c r="T49">
-        <v>0.01572985050398431</v>
+        <v>0.01517788198724816</v>
       </c>
       <c r="U49">
         <v>1</v>
@@ -8851,13 +9031,13 @@
         <v>0</v>
       </c>
       <c r="Z49">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AK49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="AL49">
-        <v>0.01605655075735287</v>
+        <v>0.01636853282161287</v>
       </c>
       <c r="AM49">
         <v>1</v>
@@ -8875,13 +9055,13 @@
         <v>0</v>
       </c>
       <c r="AR49">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BC49" s="1" t="s">
         <v>56</v>
       </c>
       <c r="BD49">
-        <v>0.0161958719531822</v>
+        <v>0.01692847457919489</v>
       </c>
       <c r="BE49">
         <v>1</v>
@@ -8899,7 +9079,7 @@
         <v>0</v>
       </c>
       <c r="BJ49">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="50" spans="1:62">
@@ -8907,7 +9087,7 @@
         <v>56</v>
       </c>
       <c r="B50">
-        <v>0.01369959892417513</v>
+        <v>0.00985143244842991</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -8925,13 +9105,13 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="S50" s="1" t="s">
         <v>56</v>
       </c>
       <c r="T50">
-        <v>0.01571851367479225</v>
+        <v>0.01511836088141582</v>
       </c>
       <c r="U50">
         <v>1</v>
@@ -8949,13 +9129,13 @@
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AK50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="AL50">
-        <v>0.01605655075735287</v>
+        <v>0.01636853282161287</v>
       </c>
       <c r="AM50">
         <v>1</v>
@@ -8973,13 +9153,13 @@
         <v>0</v>
       </c>
       <c r="AR50">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BC50" s="1" t="s">
         <v>57</v>
       </c>
       <c r="BD50">
-        <v>0.0161958719531822</v>
+        <v>0.01692847457919489</v>
       </c>
       <c r="BE50">
         <v>1</v>
@@ -8997,7 +9177,7 @@
         <v>0</v>
       </c>
       <c r="BJ50">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:62">
@@ -9005,7 +9185,7 @@
         <v>57</v>
       </c>
       <c r="B51">
-        <v>0.01369959892417513</v>
+        <v>0.00985143244842991</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -9023,13 +9203,13 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="S51" s="1" t="s">
         <v>57</v>
       </c>
       <c r="T51">
-        <v>0.01571851367479225</v>
+        <v>0.01511836088141582</v>
       </c>
       <c r="U51">
         <v>1</v>
@@ -9047,13 +9227,13 @@
         <v>0</v>
       </c>
       <c r="Z51">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AK51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="AL51">
-        <v>0.01605655075735287</v>
+        <v>0.01632557079320968</v>
       </c>
       <c r="AM51">
         <v>1</v>
@@ -9071,13 +9251,13 @@
         <v>0</v>
       </c>
       <c r="AR51">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="BC51" s="1" t="s">
         <v>58</v>
       </c>
       <c r="BD51">
-        <v>0.0161958719531822</v>
+        <v>0.01688404288738598</v>
       </c>
       <c r="BE51">
         <v>1</v>
@@ -9095,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="BJ51">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:62">
@@ -9103,7 +9283,7 @@
         <v>58</v>
       </c>
       <c r="B52">
-        <v>0.01369959892417513</v>
+        <v>0.009825575670350041</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -9121,13 +9301,13 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="S52" s="1" t="s">
         <v>58</v>
       </c>
       <c r="T52">
-        <v>0.01571851367479225</v>
+        <v>0.01507868014419425</v>
       </c>
       <c r="U52">
         <v>1</v>
@@ -9145,13 +9325,13 @@
         <v>0</v>
       </c>
       <c r="Z52">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="AK52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="AL52">
-        <v>0.01605076043973392</v>
+        <v>0.0162611277506049</v>
       </c>
       <c r="AM52">
         <v>1</v>
@@ -9169,13 +9349,13 @@
         <v>0</v>
       </c>
       <c r="AR52">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="BC52" s="1" t="s">
         <v>59</v>
       </c>
       <c r="BD52">
-        <v>0.01619003139351643</v>
+        <v>0.01681739534967261</v>
       </c>
       <c r="BE52">
         <v>1</v>
@@ -9193,7 +9373,7 @@
         <v>0</v>
       </c>
       <c r="BJ52">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="53" spans="1:62">
@@ -9201,7 +9381,7 @@
         <v>59</v>
       </c>
       <c r="B53">
-        <v>0.01369465857115523</v>
+        <v>0.009786790503230239</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -9219,13 +9399,13 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="S53" s="1" t="s">
         <v>59</v>
       </c>
       <c r="T53">
-        <v>0.01571284526019622</v>
+        <v>0.0150191590383619</v>
       </c>
       <c r="U53">
         <v>1</v>
@@ -9243,13 +9423,13 @@
         <v>0</v>
       </c>
       <c r="Z53">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AK53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="AL53">
-        <v>0.01604497012211497</v>
+        <v>0.01623964673640332</v>
       </c>
       <c r="AM53">
         <v>1</v>
@@ -9267,13 +9447,13 @@
         <v>0</v>
       </c>
       <c r="AR53">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="BC53" s="1" t="s">
         <v>60</v>
       </c>
       <c r="BD53">
-        <v>0.01618419083385065</v>
+        <v>0.01679517950376816</v>
       </c>
       <c r="BE53">
         <v>1</v>
@@ -9291,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="BJ53">
-        <v>16</v>
+        <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:62">
@@ -9299,7 +9479,7 @@
         <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01368971821813533</v>
+        <v>0.009773862114190306</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -9317,13 +9497,13 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="S54" s="1" t="s">
         <v>60</v>
       </c>
       <c r="T54">
-        <v>0.01570717684560019</v>
+        <v>0.01499931866975112</v>
       </c>
       <c r="U54">
         <v>1</v>
@@ -9341,13 +9521,13 @@
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="AK54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="AL54">
-        <v>0.01603338948687707</v>
+        <v>0.01623964673640332</v>
       </c>
       <c r="AM54">
         <v>1</v>
@@ -9365,13 +9545,13 @@
         <v>0</v>
       </c>
       <c r="AR54">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="BC54" s="1" t="s">
         <v>61</v>
       </c>
       <c r="BD54">
-        <v>0.01617250971451912</v>
+        <v>0.01679517950376816</v>
       </c>
       <c r="BE54">
         <v>1</v>
@@ -9389,7 +9569,7 @@
         <v>0</v>
       </c>
       <c r="BJ54">
-        <v>18</v>
+        <v>24</v>
       </c>
     </row>
     <row r="55" spans="1:62">
@@ -9397,7 +9577,7 @@
         <v>61</v>
       </c>
       <c r="B55">
-        <v>0.01367983751209554</v>
+        <v>0.009773862114190306</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -9415,13 +9595,13 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="S55" s="1" t="s">
         <v>61</v>
       </c>
       <c r="T55">
-        <v>0.01569584001640813</v>
+        <v>0.01499931866975112</v>
       </c>
       <c r="U55">
         <v>1</v>
@@ -9439,19 +9619,19 @@
         <v>0</v>
       </c>
       <c r="Z55">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="AK55" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="AL55">
-        <v>0.01603338948687707</v>
+        <v>0.01608138523070379</v>
       </c>
       <c r="AM55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO55">
         <v>1</v>
@@ -9463,19 +9643,19 @@
         <v>0</v>
       </c>
       <c r="AR55">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="BC55" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="BD55">
-        <v>0.01617250971451912</v>
+        <v>0.01633403953967096</v>
       </c>
       <c r="BE55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BF55">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BG55">
         <v>1</v>
@@ -9487,7 +9667,7 @@
         <v>0</v>
       </c>
       <c r="BJ55">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="56" spans="1:62">
@@ -9495,7 +9675,7 @@
         <v>62</v>
       </c>
       <c r="B56">
-        <v>0.01367983751209554</v>
+        <v>0.009502365944351684</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -9513,13 +9693,13 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="S56" s="1" t="s">
         <v>62</v>
       </c>
       <c r="T56">
-        <v>0.01569584001640813</v>
+        <v>0.0145826709289247</v>
       </c>
       <c r="U56">
         <v>1</v>
@@ -9537,13 +9717,13 @@
         <v>0</v>
       </c>
       <c r="Z56">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="AK56" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AL56">
-        <v>0.01600443789878231</v>
+        <v>0.01578854543816989</v>
       </c>
       <c r="AM56">
         <v>1</v>
@@ -9561,13 +9741,13 @@
         <v>0</v>
       </c>
       <c r="AR56">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="BC56" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="BD56">
-        <v>0.01614330691619026</v>
+        <v>0.0163286467397746</v>
       </c>
       <c r="BE56">
         <v>1</v>
@@ -9585,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="BJ56">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:62">
@@ -9593,7 +9773,7 @@
         <v>63</v>
       </c>
       <c r="B57">
-        <v>0.01365513574699605</v>
+        <v>0.006231483517248316</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -9611,13 +9791,13 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>23</v>
+        <v>298</v>
       </c>
       <c r="S57" s="1" t="s">
         <v>63</v>
       </c>
       <c r="T57">
-        <v>0.01566749794342798</v>
+        <v>0.00956305767039688</v>
       </c>
       <c r="U57">
         <v>1</v>
@@ -9635,13 +9815,13 @@
         <v>0</v>
       </c>
       <c r="Z57">
-        <v>23</v>
+        <v>298</v>
       </c>
       <c r="AK57" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AL57">
-        <v>0.01599864758116336</v>
+        <v>0.01035384884516719</v>
       </c>
       <c r="AM57">
         <v>1</v>
@@ -9659,13 +9839,13 @@
         <v>0</v>
       </c>
       <c r="AR57">
-        <v>24</v>
+        <v>298</v>
       </c>
       <c r="BC57" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="BD57">
-        <v>0.01613746635652449</v>
+        <v>0.01070803772594742</v>
       </c>
       <c r="BE57">
         <v>1</v>
@@ -9683,7 +9863,7 @@
         <v>0</v>
       </c>
       <c r="BJ57">
-        <v>24</v>
+        <v>298</v>
       </c>
     </row>
     <row r="58" spans="1:62">
@@ -9691,7 +9871,7 @@
         <v>64</v>
       </c>
       <c r="B58">
-        <v>0.01365019539397616</v>
+        <v>0</v>
       </c>
       <c r="C58">
         <v>1</v>
@@ -9709,13 +9889,13 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>24</v>
+        <v>780</v>
       </c>
       <c r="S58" s="1" t="s">
         <v>64</v>
       </c>
       <c r="T58">
-        <v>0.01566182952883195</v>
+        <v>0</v>
       </c>
       <c r="U58">
         <v>1</v>
@@ -9733,13 +9913,13 @@
         <v>0</v>
       </c>
       <c r="Z58">
-        <v>24</v>
+        <v>780</v>
       </c>
       <c r="AK58" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="AL58">
-        <v>0.0159696959930686</v>
+        <v>0</v>
       </c>
       <c r="AM58">
         <v>1</v>
@@ -9757,13 +9937,13 @@
         <v>0</v>
       </c>
       <c r="AR58">
-        <v>29</v>
+        <v>780</v>
       </c>
       <c r="BC58" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="BD58">
-        <v>0.01610826355819564</v>
+        <v>0</v>
       </c>
       <c r="BE58">
         <v>1</v>
@@ -9781,595 +9961,7 @@
         <v>0</v>
       </c>
       <c r="BJ58">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:62">
-      <c r="A59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B59">
-        <v>0.01362549362887667</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>1</v>
-      </c>
-      <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59">
-        <v>29</v>
-      </c>
-      <c r="S59" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="T59">
-        <v>0.01563348745585179</v>
-      </c>
-      <c r="U59">
-        <v>1</v>
-      </c>
-      <c r="V59">
-        <v>1</v>
-      </c>
-      <c r="W59">
-        <v>1</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
-      <c r="Y59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z59">
-        <v>29</v>
-      </c>
-      <c r="AK59" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AL59">
-        <v>0.01595587736606673</v>
-      </c>
-      <c r="AM59">
-        <v>2</v>
-      </c>
-      <c r="AN59">
-        <v>2</v>
-      </c>
-      <c r="AO59">
-        <v>1</v>
-      </c>
-      <c r="AP59">
-        <v>0</v>
-      </c>
-      <c r="AQ59" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR59">
-        <v>76</v>
-      </c>
-      <c r="BC59" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BD59">
-        <v>0.01607906075986678</v>
-      </c>
-      <c r="BE59">
-        <v>1</v>
-      </c>
-      <c r="BF59">
-        <v>1</v>
-      </c>
-      <c r="BG59">
-        <v>1</v>
-      </c>
-      <c r="BH59">
-        <v>0</v>
-      </c>
-      <c r="BI59" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ59">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="60" spans="1:62">
-      <c r="A60" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60">
-        <v>0.01360079186377718</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>1</v>
-      </c>
-      <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60">
-        <v>34</v>
-      </c>
-      <c r="S60" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="T60">
-        <v>0.01560514538287164</v>
-      </c>
-      <c r="U60">
-        <v>1</v>
-      </c>
-      <c r="V60">
-        <v>1</v>
-      </c>
-      <c r="W60">
-        <v>1</v>
-      </c>
-      <c r="X60">
-        <v>0</v>
-      </c>
-      <c r="Y60" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z60">
-        <v>34</v>
-      </c>
-      <c r="AK60" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL60">
-        <v>0.01594074440497384</v>
-      </c>
-      <c r="AM60">
-        <v>1</v>
-      </c>
-      <c r="AN60">
-        <v>1</v>
-      </c>
-      <c r="AO60">
-        <v>1</v>
-      </c>
-      <c r="AP60">
-        <v>0</v>
-      </c>
-      <c r="AQ60" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR60">
-        <v>34</v>
-      </c>
-      <c r="BC60" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="BD60">
-        <v>0.01601615469594912</v>
-      </c>
-      <c r="BE60">
-        <v>2</v>
-      </c>
-      <c r="BF60">
-        <v>2</v>
-      </c>
-      <c r="BG60">
-        <v>1</v>
-      </c>
-      <c r="BH60">
-        <v>0</v>
-      </c>
-      <c r="BI60" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ60">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="61" spans="1:62">
-      <c r="A61" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61">
-        <v>0.01312651797386705</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61" t="b">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>130</v>
-      </c>
-      <c r="S61" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="T61">
-        <v>0.01506097758165272</v>
-      </c>
-      <c r="U61">
-        <v>1</v>
-      </c>
-      <c r="V61">
-        <v>1</v>
-      </c>
-      <c r="W61">
-        <v>1</v>
-      </c>
-      <c r="X61">
-        <v>0</v>
-      </c>
-      <c r="Y61" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z61">
-        <v>130</v>
-      </c>
-      <c r="AK61" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL61">
-        <v>0.01538487391355448</v>
-      </c>
-      <c r="AM61">
-        <v>1</v>
-      </c>
-      <c r="AN61">
-        <v>1</v>
-      </c>
-      <c r="AO61">
-        <v>1</v>
-      </c>
-      <c r="AP61">
-        <v>0</v>
-      </c>
-      <c r="AQ61" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR61">
-        <v>130</v>
-      </c>
-      <c r="BC61" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BD61">
-        <v>0.01551836703195279</v>
-      </c>
-      <c r="BE61">
-        <v>1</v>
-      </c>
-      <c r="BF61">
-        <v>1</v>
-      </c>
-      <c r="BG61">
-        <v>1</v>
-      </c>
-      <c r="BH61">
-        <v>0</v>
-      </c>
-      <c r="BI61" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ61">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="62" spans="1:62">
-      <c r="A62" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B62">
-        <v>0.0122965386665243</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>1</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>298</v>
-      </c>
-      <c r="S62" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="T62">
-        <v>0.01410868392951962</v>
-      </c>
-      <c r="U62">
-        <v>1</v>
-      </c>
-      <c r="V62">
-        <v>1</v>
-      </c>
-      <c r="W62">
-        <v>1</v>
-      </c>
-      <c r="X62">
-        <v>0</v>
-      </c>
-      <c r="Y62" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z62">
-        <v>298</v>
-      </c>
-      <c r="AK62" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AL62">
-        <v>0.01441210055357061</v>
-      </c>
-      <c r="AM62">
-        <v>1</v>
-      </c>
-      <c r="AN62">
-        <v>1</v>
-      </c>
-      <c r="AO62">
-        <v>1</v>
-      </c>
-      <c r="AP62">
-        <v>0</v>
-      </c>
-      <c r="AQ62" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR62">
-        <v>298</v>
-      </c>
-      <c r="BC62" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BD62">
-        <v>0.01453715300810332</v>
-      </c>
-      <c r="BE62">
-        <v>1</v>
-      </c>
-      <c r="BF62">
-        <v>1</v>
-      </c>
-      <c r="BG62">
-        <v>1</v>
-      </c>
-      <c r="BH62">
-        <v>0</v>
-      </c>
-      <c r="BI62" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ62">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="63" spans="1:62">
-      <c r="A63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63">
-        <v>0.0104933098142618</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>1</v>
-      </c>
-      <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>663</v>
-      </c>
-      <c r="S63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="T63">
-        <v>0.01203971260196853</v>
-      </c>
-      <c r="U63">
-        <v>1</v>
-      </c>
-      <c r="V63">
-        <v>1</v>
-      </c>
-      <c r="W63">
-        <v>1</v>
-      </c>
-      <c r="X63">
-        <v>0</v>
-      </c>
-      <c r="Y63" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z63">
-        <v>663</v>
-      </c>
-      <c r="AK63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AL63">
-        <v>0.01229863462265327</v>
-      </c>
-      <c r="AM63">
-        <v>1</v>
-      </c>
-      <c r="AN63">
-        <v>1</v>
-      </c>
-      <c r="AO63">
-        <v>1</v>
-      </c>
-      <c r="AP63">
-        <v>0</v>
-      </c>
-      <c r="AQ63" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR63">
-        <v>663</v>
-      </c>
-      <c r="BC63" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BD63">
-        <v>0.012405348730097</v>
-      </c>
-      <c r="BE63">
-        <v>1</v>
-      </c>
-      <c r="BF63">
-        <v>1</v>
-      </c>
-      <c r="BG63">
-        <v>1</v>
-      </c>
-      <c r="BH63">
-        <v>0</v>
-      </c>
-      <c r="BI63" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ63">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="64" spans="1:62">
-      <c r="A64" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>1</v>
-      </c>
-      <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>2787</v>
-      </c>
-      <c r="S64" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="T64">
-        <v>0</v>
-      </c>
-      <c r="U64">
-        <v>1</v>
-      </c>
-      <c r="V64">
-        <v>1</v>
-      </c>
-      <c r="W64">
-        <v>1</v>
-      </c>
-      <c r="X64">
-        <v>0</v>
-      </c>
-      <c r="Y64" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z64">
-        <v>2787</v>
-      </c>
-      <c r="AK64" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL64">
-        <v>0</v>
-      </c>
-      <c r="AM64">
-        <v>1</v>
-      </c>
-      <c r="AN64">
-        <v>1</v>
-      </c>
-      <c r="AO64">
-        <v>1</v>
-      </c>
-      <c r="AP64">
-        <v>0</v>
-      </c>
-      <c r="AQ64" t="b">
-        <v>0</v>
-      </c>
-      <c r="AR64">
-        <v>2787</v>
-      </c>
-      <c r="BC64" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BD64">
-        <v>0</v>
-      </c>
-      <c r="BE64">
-        <v>1</v>
-      </c>
-      <c r="BF64">
-        <v>1</v>
-      </c>
-      <c r="BG64">
-        <v>1</v>
-      </c>
-      <c r="BH64">
-        <v>0</v>
-      </c>
-      <c r="BI64" t="b">
-        <v>0</v>
-      </c>
-      <c r="BJ64">
-        <v>2787</v>
+        <v>780</v>
       </c>
     </row>
   </sheetData>
